--- a/xlsx/eco.xlsx
+++ b/xlsx/eco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>obj_type</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>centr_dist</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,4581 +481,3583 @@
           <t>factory</t>
         </is>
       </c>
+      <c r="E2" t="n">
+        <v>13.18531477982238</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[55.061944, 38.828611]</t>
+          <t>[55.883056, 37.621111]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>щуровский цементный заводlafargeholcimколомна</t>
+          <t>асфальтобетон-медведковогруппа евроцементчермянская улица, 5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>POINT (55.061944 38.828611)</t>
+          <t>POINT (55.883056 37.621111)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E3" t="n">
+        <v>14.17149797390501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[55.276944, 38.736667]</t>
+          <t>[55.773056, 37.508611]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>воскресенский домостроительный комбинатвоскресенск</t>
+          <t>завод жби № 17группа евроцемент3-й силикатный проезд, 10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>POINT (55.276944 38.736667)</t>
+          <t>POINT (55.773056 37.508611)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E4" t="n">
+        <v>7.116380702360594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[55.325, 38.705556]</t>
+          <t>[55.9430478, 37.7816391]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>промышленная группа «горизонт-фетр»воскресенск</t>
+          <t>оао «стройперлит»производство теплоизоляционного материала из минерального сырья — перлитамытищи</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>POINT (55.325 38.705556)</t>
+          <t>POINT (55.9430478 37.7816391)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E5" t="n">
+        <v>23.23909160639205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[55.201667, 38.781389]</t>
+          <t>[55.904444, 38.011389]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>песковский комбинат строительных материаловгруппа евроцементпески, коломенский район</t>
+          <t>гаммафлекспроизводство полимерной упаковкищелково</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>POINT (55.201667 38.781389)</t>
+          <t>POINT (55.904444 38.011389)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E6" t="n">
+        <v>29.70522746474534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[55.883056, 37.621111]</t>
+          <t>[55.9175, 38.028333]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>асфальтобетон-медведковогруппа евроцементчермянская улица, 5</t>
+          <t>асфальто-бетонный завод «стройбетон»ооо «айсберг»щелково</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>POINT (55.883056 37.621111)</t>
+          <t>POINT (55.9175 38.028333)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E7" t="n">
+        <v>31.39939047757308</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[55.773056, 37.508611]</t>
+          <t>[55.905556, 37.791389]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>завод жби № 17группа евроцемент3-й силикатный проезд, 10</t>
+          <t>бетонный завод «стройбетон»ооо «айсберг»королев</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>POINT (55.773056 37.508611)</t>
+          <t>POINT (55.905556 37.791389)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E8" t="n">
+        <v>19.91075687249534</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[55.797, 38.935]</t>
+          <t>[55.927086, 38.053036]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>предприятия на площадке бывшего завода пластмасс «карболит»«акзо нобель лакокраска» (порошковые краски)  «метадинеа» (синтетические смолы)  «фенопласт» (фенольные формовочные материалы — фенопласты)  «артэко-рус» (растворы органической и синтетической химии)  «вазапласт» (теплоизолированные трубы с применением пенополиуретана)и др.орехово-зуево</t>
+          <t>оао «щелковское рудоуправление»производство минерального порошка для изготовления асфальтобетонащелково</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>POINT (55.797 38.935)</t>
+          <t>POINT (55.927086 38.053036)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E9" t="n">
+        <v>33.27668419459091</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[55.414444, 38.971667]</t>
+          <t>[55.459392, 37.56689]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>завод «кроношпан»производство дсп и ламинатаегорьевск</t>
+          <t>цементный завод «подольск-цемент»подольск</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>POINT (55.414444 38.971667)</t>
+          <t>POINT (55.459392 37.56689)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E10" t="n">
+        <v>33.15443611529943</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[55.388333, 39.016111]</t>
+          <t>[55.459167, 37.5725]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>егорьевский завод строительных материаловегорьевск</t>
+          <t>подольскогнеупорподольск</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>POINT (55.388333 39.016111)</t>
+          <t>POINT (55.459167 37.5725)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E11" t="n">
+        <v>33.14707169455608</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[55.368889, 38.997778]</t>
+          <t>[55.430556, 37.583611]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>завод «сен-гобен изовер»производство термоизоляции из минеральной ватыегорьевск</t>
+          <t>заводы по производству кабельной продукции«подольсккабель» «микропровод» «электропровод»подольск</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>POINT (55.368889 38.997778)</t>
+          <t>POINT (55.430556 37.583611)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E12" t="n">
+        <v>36.27336650409909</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[55.3731608, 39.0256691]</t>
+          <t>[55.704444, 37.444444]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>заводы «остендорф рус» и «европейские пластиковые технологии»производство полимерных труб и фитингов из полипропилена, пластиковых оконегорьевск</t>
+          <t>завод «рти-каучук»производство резиновых смесей и изделий из резиныгенерала дорохова улица, 6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>POINT (55.3731608 39.0256691)</t>
+          <t>POINT (55.704444 37.444444)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E13" t="n">
+        <v>12.29839119157424</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[55.9430478, 37.7816391]</t>
+          <t>[55.708611, 37.446667]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>оао «стройперлит»производство теплоизоляционного материала из минерального сырья — перлитамытищи</t>
+          <t xml:space="preserve"> завод «асфальтобетон»производство асфальта. источник смога и неприятного запаха в близлежащих районахочаково-матвеевское</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>POINT (55.9430478 37.7816391)</t>
+          <t>POINT (55.708611 37.446667)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E14" t="n">
+        <v>11.96357528476282</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[55.904444, 38.011389]</t>
+          <t>[55.528056, 37.575278]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>гаммафлекспроизводство полимерной упаковкищелково</t>
+          <t>асфальто-бетонное производствоисточник дыма и копотипроектируемый проезд 185</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>POINT (55.904444 38.011389)</t>
+          <t>POINT (55.528056 37.575278)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E15" t="n">
+        <v>25.49524862167818</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[55.9175, 38.028333]</t>
+          <t>[55.685278, 37.608333]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>асфальто-бетонный завод «стройбетон»ооо «айсберг»щелково</t>
+          <t>территория асфальтобетонного завода «вираж»асфальто-бетонный заводзавод «грида» (производство битумных мастик и дорожных покрытий)нагорный район</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>POINT (55.9175 38.028333)</t>
+          <t>POINT (55.685278 37.608333)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E16" t="n">
+        <v>7.872582379766764</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[55.905556, 37.791389]</t>
+          <t>[55.585833, 37.624444]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>бетонный завод «стройбетон»ооо «айсберг»королев</t>
+          <t>асфальтобетонный завод гбу «автомобильные дороги»построен в 2015 г. по современным технологиямбирюлево западное</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>POINT (55.905556 37.791389)</t>
+          <t>POINT (55.585833 37.624444)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E17" t="n">
+        <v>18.9266375980596</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[55.927086, 38.053036]</t>
+          <t>[55.855833, 37.533889]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>оао «щелковское рудоуправление»производство минерального порошка для изготовления асфальтобетонащелково</t>
+          <t>завод «аурат»(химический завод им. войкова)производство химических реактивов и соединений драгоценных металлов4-й лихачёвский переулок, 6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>POINT (55.927086 38.053036)</t>
+          <t>POINT (55.855833 37.533889)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E18" t="n">
+        <v>12.31817755830399</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[55.459392, 37.56689]</t>
+          <t>[55.752531, 37.741498]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>цементный завод «подольск-цемент»подольск</t>
+          <t>московский завод «нефтепродукт»производство смазочных, защитных и консервационных материаловроснефтьшоссе энтузиастов, 38, перово</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>POINT (55.459392 37.56689)</t>
+          <t>POINT (55.752531 37.741498)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E19" t="n">
+        <v>7.777493674968968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[55.459167, 37.5725]</t>
+          <t>[55.74, 37.790556,]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>подольскогнеупорподольск</t>
+          <t>кусковский завод консистентных смазокржд2-я владимирская улица, 64</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>POINT (55.459167 37.5725)</t>
+          <t>POINT (55.74 37.790556)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E20" t="n">
+        <v>10.99247875300191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[55.430556, 37.583611]</t>
+          <t>[55.802778, 37.577778]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>заводы по производству кабельной продукции«подольсккабель» «микропровод» «электропровод»подольск</t>
+          <t>фабрика «свобода»производство мыла и косметикиисточник неприятных запаховпланируется переезд в медведкововятская улица, 47</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>POINT (55.430556 37.583611)</t>
+          <t>POINT (55.802778 37.577778)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5.802394424935187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[56.3291968, 36.6855383]</t>
+          <t>[55.553611, 37.7625]</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>термоприборпроизводство ртутных термометровклин</t>
+          <t>московский коксогазовый заводмечелвидное</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>POINT (56.3291968 36.6855383)</t>
+          <t>POINT (55.553611 37.7625)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E22" t="n">
+        <v>24.28329573098919</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[55.704444, 37.444444]</t>
+          <t>[55.728056, 37.686667]</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>завод «рти-каучук»производство резиновых смесей и изделий из резиныгенерала дорохова улица, 6</t>
+          <t>микояновский мясокомбинатисточник неприятного запахаталалихина улица, 41с9</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>POINT (55.704444 37.444444)</t>
+          <t>POINT (55.728056 37.686667)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5.316123844527397</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[55.708611, 37.446667]</t>
+          <t>[55.805278, 37.970556]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> завод «асфальтобетон»производство асфальта. источник смога и неприятного запаха в близлежащих районахочаково-матвеевское</t>
+          <t>криогенмашоборудование для производства и хранения технических газовгруппа омзбалашиха</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>POINT (55.708611 37.446667)</t>
+          <t>POINT (55.805278 37.970556)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E24" t="n">
+        <v>22.81172039904276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[55.528056, 37.575278]</t>
+          <t>[55.805278, 37.591111]</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>асфальто-бетонное производствоисточник дыма и копотипроектируемый проезд 185</t>
+          <t>завод «шлифовальные станки»группа «стан»складочная ул., 1с22</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>POINT (55.528056 37.575278)</t>
+          <t>POINT (55.805278 37.591111)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5.758414614819745</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[55.685278, 37.608333]</t>
+          <t>[55.9073659, 37.7582932]</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>территория асфальтобетонного завода «вираж»асфальто-бетонный заводзавод «грида» (производство битумных мастик и дорожных покрытий)нагорный район</t>
+          <t>метровагонмашмытищи</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>POINT (55.685278 37.608333)</t>
+          <t>POINT (55.9073659 37.7582932)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E26" t="n">
+        <v>19.03593668801862</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[55.585833, 37.624444]</t>
+          <t>[55.92, 37.770556]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>асфальтобетонный завод гбу «автомобильные дороги»построен в 2015 г. по современным технологиямбирюлево западное</t>
+          <t>мытищинский электромеханический заводпроизводство трансформаторов и другого оборудования для электросетеймытищи</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>POINT (55.585833 37.624444)</t>
+          <t>POINT (55.92 37.770556)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E27" t="n">
+        <v>20.63783413923512</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[55.855833, 37.533889]</t>
+          <t>[55.908424, 38.038444]</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>завод «аурат»(химический завод им. войкова)производство химических реактивов и соединений драгоценных металлов4-й лихачёвский переулок, 6</t>
+          <t>завод «электронасосный агрегат» (эна)щелково</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>POINT (55.855833 37.533889)</t>
+          <t>POINT (55.908424 38.038444)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E28" t="n">
+        <v>31.36416308167703</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[55.752531, 37.741498]</t>
+          <t>[55.415, 37.570833]</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>московский завод «нефтепродукт»производство смазочных, защитных и консервационных материаловроснефтьшоссе энтузиастов, 38, перово</t>
+          <t>подольский машиностроительный заводподольск</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>POINT (55.752531 37.741498)</t>
+          <t>POINT (55.415 37.570833)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E29" t="n">
+        <v>38.05651211390833</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[55.74, 37.790556,]</t>
+          <t>[55.772222, 37.721667]</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>кусковский завод консистентных смазокржд2-я владимирская улица, 64</t>
+          <t>нпц газотурбостроения «салют»производство авиационных двигателей и энергетических установокисточник шума и выбросовбудённого проспект, 16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>POINT (55.74 37.790556)</t>
+          <t>POINT (55.772222 37.721667)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6.774064429124609</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[55.802778, 37.577778]</t>
+          <t>[55.927222, 38.02]</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>фабрика «свобода»производство мыла и косметикиисточник неприятных запаховпланируется переезд в медведкововятская улица, 47</t>
+          <t>щёлковский завод вторичных драгоценных металловпереработка золото- и серебросодержащих отходовщелково</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>POINT (55.802778 37.577778)</t>
+          <t>POINT (55.927222 38.02)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E31" t="n">
+        <v>31.61209245662224</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[55.553611, 37.7625]</t>
+          <t>[55.649167, 37.809444]</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>московский коксогазовый заводмечелвидное</t>
+          <t>московский нпзгазпромнефтькапотня</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>POINT (55.553611 37.7625)</t>
+          <t>POINT (55.649167 37.809444)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>factory</t>
         </is>
+      </c>
+      <c r="E32" t="n">
+        <v>16.91577030889845</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[54.814144, 38.251298]</t>
+          <t>[55.861412, 37.656666]</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>каширский завод стали с покрытиемпроизводство оцинкованного листатехинвестстройкашира</t>
+          <t>районные тепловые станции бабушкинская-1 и «бабушкинская-2»искры ул., д. 17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>POINT (54.814144 38.251298)</t>
+          <t>POINT (55.861412 37.656666)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>12.01040646175226</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[55.59, 36.45]</t>
+          <t>[55.861509, 37.658243]</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>завод «московская кофейня на паях»обжарка натурального и производство растворимого кофетучково</t>
+          <t>районная тепловая станция бабушкинская-1искры ул., д. 17</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>POINT (55.59 36.45)</t>
+          <t>POINT (55.861509 37.658243)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>12.0414336943781</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[55.728056, 37.686667]</t>
+          <t>[55.861412, 37.656666]</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>микояновский мясокомбинатисточник неприятного запахаталалихина улица, 41с9</t>
+          <t>районная тепловая станция бабушкинская-2искры ул., д. 17б</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>POINT (55.728056 37.686667)</t>
+          <t>POINT (55.861412 37.656666)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>12.01040646175226</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[55.805278, 37.970556]</t>
+          <t>[55.588371, 37.660328]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>криогенмашоборудование для производства и хранения технических газовгруппа омзбалашиха</t>
+          <t>районная тепловая станция бирюлеволебедянская ул., д. 3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>POINT (55.805278 37.970556)</t>
+          <t>POINT (55.588371 37.660328)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>18.83081761256621</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[55.324444, 38.686111]</t>
+          <t>[55.645, 37.593611]</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>электромеханический заводвоскресенск</t>
+          <t>районная тепловая станция волхонка-зилазовская ул., д. 28</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>POINT (55.324444 38.686111)</t>
+          <t>POINT (55.645 37.593611)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>12.42775462073454</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[55.255, 38.751111]</t>
+          <t>[55.702136, 37.855249]</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>воскресенский завод «машиностроитель»горнопромышленная финансовая компаниявоскресенск</t>
+          <t>районная тепловая станция жулебинолермонтовский просп. д. 147 с. 1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>POINT (55.255 38.751111)</t>
+          <t>POINT (55.702136 37.855249)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>16.07211946900637</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[55.087778, 38.813889]</t>
+          <t>[55.599874, 37.623347]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>коломенский заводпроизводство локомотивовколомна</t>
+          <t>районная тепловая станция красный строительдорожная ул., д. 9а</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>POINT (55.087778 38.813889)</t>
+          <t>POINT (55.599874 37.623347)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>17.36227641288034</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[55.07028, 38.78556]</t>
+          <t>[55.769722, 37.403333]</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>станкотехпроизводство сверхтяжелого оборудования и специальных станковсоздан на базе бывшего коломенского завода тяжелых станковгруппа «стан»коломна</t>
+          <t>районная тепловая станция крылатскоеосенняя ул., д. 29</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>POINT (55.07028 38.78556)</t>
+          <t>POINT (55.769722 37.403333)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>13.54989845312794</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[55.805278, 37.591111]</t>
+          <t>[55.713889, 37.423889]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>завод «шлифовальные станки»группа «стан»складочная ул., 1с22</t>
+          <t>районная тепловая станция кунцевоверейская ул. д. 35</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>POINT (55.805278 37.591111)</t>
+          <t>POINT (55.713889 37.423889)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>13.0418707458027</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[55.9073659, 37.7582932]</t>
+          <t>[55.629178, 37.644024]</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>метровагонмашмытищи</t>
+          <t>районная тепловая станция ленино-дачноекавказский бульв., д. 52</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>POINT (55.9073659 37.7582932)</t>
+          <t>POINT (55.629178 37.644024)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>14.19257350573792</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[55.92, 37.770556]</t>
+          <t>[55.693611, 37.451944]</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>мытищинский электромеханический заводпроизводство трансформаторов и другого оборудования для электросетеймытищи</t>
+          <t>районная тепловая станция матвеевскаяочаковское шоссе, д. 14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>POINT (55.92 37.770556)</t>
+          <t>POINT (55.693611 37.451944)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>12.50936963854066</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[55.908424, 38.038444]</t>
+          <t>[55.844167, 37.375]</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>завод «электронасосный агрегат» (эна)щелково</t>
+          <t>районная тепловая станция митино (ртс-38)пятницкое шоссе, д. 19</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>POINT (55.908424 38.038444)</t>
+          <t>POINT (55.844167 37.375)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>18.12795073201651</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[55.415, 37.570833]</t>
+          <t>[55.675556, 37.66]</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>подольский машиностроительный заводподольск</t>
+          <t>районная тепловая станция нагатиноандропова просп., д. 36 корп. 2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>POINT (55.415 37.570833)</t>
+          <t>POINT (55.675556 37.66)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>9.318733724751677</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[55.772222, 37.721667]</t>
+          <t>[55.811716, 37.616541]</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>нпц газотурбостроения «салют»производство авиационных двигателей и энергетических установокисточник шума и выбросовбудённого проспект, 16</t>
+          <t>районная тепловая станция новомосковскаяновомосковская ул., д. 1а</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>POINT (55.772222 37.721667)</t>
+          <t>POINT (55.811716 37.616541)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>6.227489703687511</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[54.9075, 38.067778]</t>
+          <t>[55.852845, 37.595837]</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ступинский металлургический комбинатгруппа смкступино</t>
+          <t>районная тепловая станция отрадноесигнальный пр., д. 21</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>POINT (54.9075 38.067778)</t>
+          <t>POINT (55.852845 37.595837)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>10.89339510299516</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[54.8179108, 38.2508835]</t>
+          <t>[55.838989, 37.347168]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>каширский завод «эталит»производство бронзового литьякашира</t>
+          <t>районная тепловая станция пенягино (ртс-40)дубравная ул., д. 55</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>POINT (54.8179108 38.2508835)</t>
+          <t>POINT (55.838989 37.347168)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>19.33502026032875</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[55.927222, 38.02]</t>
+          <t>[55.653473, 37.378065]</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>щёлковский завод вторичных драгоценных металловпереработка золото- и серебросодержащих отходовщелково</t>
+          <t>районная тепловая станция переделкиноборовское шоссе, д. 10</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>POINT (55.927222 38.02)</t>
+          <t>POINT (55.653473 37.378065)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>18.89036016510842</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[55.649167, 37.809444]</t>
+          <t>[55.785572, 37.642074]</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>московский нпзгазпромнефтькапотня</t>
+          <t>районная тепловая станция переяславскаяпереяславская б. ул., д. 36</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>POINT (55.649167 37.809444)</t>
+          <t>POINT (55.785572 37.642074)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>3.650342882382105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[55.861412, 37.656666]</t>
+          <t>[55.745695, 37.834137]</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>районные тепловые станции бабушкинская-1 и «бабушкинская-2»искры ул., д. 17</t>
+          <t>районная тепловая станция перовотакже на территории строится мини-тэскетчерская ул., д. 12</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>POINT (55.861412 37.656666)</t>
+          <t>POINT (55.745695 37.834137)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E51" t="n">
+        <v>13.63324640181585</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[55.861509, 37.658243]</t>
+          <t>[55.842358, 37.654214]</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>районная тепловая станция бабушкинская-1искры ул., д. 17</t>
+          <t>районная тепловая станция ростокиномира просп., д. 207</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>POINT (55.861509 37.658243)</t>
+          <t>POINT (55.842358 37.654214)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E52" t="n">
+        <v>9.906033519324255</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[55.861412, 37.656666]</t>
+          <t>[55.741229, 37.412616]</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>районная тепловая станция бабушкинская-2искры ул., д. 17б</t>
+          <t>районная тепловая станция рублевооршанская ул., д. 6 корп. 2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>POINT (55.861412 37.656666)</t>
+          <t>POINT (55.741229 37.412616)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E53" t="n">
+        <v>12.98430499422832</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[55.588371, 37.660328]</t>
+          <t>[55.64427, 37.407636]</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>районная тепловая станция бирюлеволебедянская ул., д. 3</t>
+          <t>районная тепловая станция солнцевощорса ул., д. 11 с. 1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>POINT (55.588371 37.660328)</t>
+          <t>POINT (55.64427 37.407636)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E54" t="n">
+        <v>18.13026578287679</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[55.645, 37.593611]</t>
+          <t>[55.611884, 37.512775]</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>районная тепловая станция волхонка-зилазовская ул., д. 28</t>
+          <t>районная тепловая станция теплый станновоясеневский просп., д.8 корп.3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>POINT (55.645 37.593611)</t>
+          <t>POINT (55.611884 37.512775)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E55" t="n">
+        <v>17.32925862041681</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[55.702136, 37.855249]</t>
+          <t>[55.858643, 37.433592]</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>районная тепловая станция жулебинолермонтовский просп. д. 147 с. 1</t>
+          <t>районная тепловая станция тушино-1 (ртс-31)планерная ул., д. 2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>POINT (55.702136 37.855249)</t>
+          <t>POINT (55.858643 37.433592)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E56" t="n">
+        <v>16.26355340241529</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[55.599874, 37.623347]</t>
+          <t>[55.843352, 37.424848]</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>районная тепловая станция красный строительдорожная ул., д. 9а</t>
+          <t>районная тепловая станция тушино-2 (ртс-32)фабрициуса ул., д. 37</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>POINT (55.599874 37.623347)</t>
+          <t>POINT (55.843352 37.424848)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E57" t="n">
+        <v>15.53800582706447</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[55.769722, 37.403333]</t>
+          <t>[55.83245, 37.408771]</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>районная тепловая станция крылатскоеосенняя ул., д. 29</t>
+          <t>районная тепловая станция тушино-3 (ртс-37)походный пр., д. 2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>POINT (55.769722 37.403333)</t>
+          <t>POINT (55.83245 37.408771)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E58" t="n">
+        <v>15.64281161381504</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[55.713889, 37.423889]</t>
+          <t>[55.841, 37.425125]</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>районная тепловая станция кунцевоверейская ул. д. 35</t>
+          <t>районная тепловая станция тушино-4 (ртс-39)строительный пр., д. 12</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>POINT (55.713889 37.423889)</t>
+          <t>POINT (55.841 37.425125)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E59" t="n">
+        <v>15.36166824713494</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[55.629178, 37.644024]</t>
+          <t>[55.861271, 37.414052]</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>районная тепловая станция ленино-дачноекавказский бульв., д. 52</t>
+          <t>районная тепловая станция тушино-5строительный проезд, д. 14 корп. 1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>POINT (55.629178 37.644024)</t>
+          <t>POINT (55.861271 37.414052)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E60" t="n">
+        <v>17.3516098475601</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[55.693611, 37.451944]</t>
+          <t>[55.734248, 37.730763]</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>районная тепловая станция матвеевскаяочаковское шоссе, д. 14</t>
+          <t>районная тепловая станция фрезерфрезер шоссе, д. 14</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>POINT (55.693611 37.451944)</t>
+          <t>POINT (55.734248 37.730763)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E61" t="n">
+        <v>7.490896974647313</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[55.844167, 37.375]</t>
+          <t>[55.865375, 37.481172]</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>районная тепловая станция митино (ртс-38)пятницкое шоссе, д. 19</t>
+          <t>районная тепловая станция химки-ховринобеломорская ул., д. 38а</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>POINT (55.844167 37.375)</t>
+          <t>POINT (55.865375 37.481172)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E62" t="n">
+        <v>14.90686665435665</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[55.675556, 37.66]</t>
+          <t>[55.623675, 37.586075]</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>районная тепловая станция нагатиноандропова просп., д. 36 корп. 2</t>
+          <t>районная тепловая станция чертановоднепропетровская ул., д. 12</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>POINT (55.675556 37.66)</t>
+          <t>POINT (55.623675 37.586075)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E63" t="n">
+        <v>14.84324956421922</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>[55.811716, 37.616541]</t>
+          <t>[55.551265, 37.523679]</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>районная тепловая станция новомосковскаяновомосковская ул., д. 1а</t>
+          <t>районная тепловая станция южное бутовополяны улица, 75с3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>POINT (55.811716 37.616541)</t>
+          <t>POINT (55.551265 37.523679)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E64" t="n">
+        <v>23.52819152145041</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[55.852845, 37.595837]</t>
+          <t>[55.885278, 37.378056]</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>районная тепловая станция отрадноесигнальный пр., д. 21</t>
+          <t>квартальная тепловая станция захарьинокуркинское шоссе, д. 29</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>POINT (55.852845 37.595837)</t>
+          <t>POINT (55.885278 37.378056)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E65" t="n">
+        <v>20.82349188008924</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[55.838989, 37.347168]</t>
+          <t>[55.710874, 37.862166]</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>районная тепловая станция пенягино (ртс-40)дубравная ул., д. 55</t>
+          <t>квартальная тепловая станция косинокосинская б. ул., д. 18г</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>POINT (55.838989 37.347168)</t>
+          <t>POINT (55.710874 37.862166)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E66" t="n">
+        <v>16.14751034362987</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[55.653473, 37.378065]</t>
+          <t>[55.645855, 37.699581]</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>районная тепловая станция переделкиноборовское шоссе, д. 10</t>
+          <t>районная тепловая станция курьяноводонецкая ул., д. 40</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>POINT (55.653473 37.378065)</t>
+          <t>POINT (55.645855 37.699581)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E67" t="n">
+        <v>13.27651778554311</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[55.785572, 37.642074]</t>
+          <t>[55.655426, 37.703021]</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>районная тепловая станция переяславскаяпереяславская б. ул., д. 36</t>
+          <t>квартальная тепловая станция курьяново-2курьяновская 2-я ул., 7</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>POINT (55.785572 37.642074)</t>
+          <t>POINT (55.655426 37.703021)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E68" t="n">
+        <v>12.39281730524041</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[55.745695, 37.834137]</t>
+          <t>[55.688344, 37.92872]</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>районная тепловая станция перовотакже на территории строится мини-тэскетчерская ул., д. 12</t>
+          <t>районная тепловая станция некрасовкавольская 2-я ул, 17</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>POINT (55.745695 37.834137)</t>
+          <t>POINT (55.688344 37.92872)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E69" t="n">
+        <v>20.93346744314378</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[55.842358, 37.654214]</t>
+          <t>[55.681785, 37.61868]</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>районная тепловая станция ростокиномира просп., д. 207</t>
+          <t>квартальная тепловая станция нижние котлываршавское шоссе, 28а</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>POINT (55.842358 37.654214)</t>
+          <t>POINT (55.681785 37.61868)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E70" t="n">
+        <v>8.23934010124724</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[55.741229, 37.412616]</t>
+          <t>[55.539927, 37.561796]</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>районная тепловая станция рублевооршанская ул., д. 6 корп. 2</t>
+          <t>квартальная тепловая станция радиоцентр-4краснолиманская ул., 19б</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>POINT (55.741229 37.412616)</t>
+          <t>POINT (55.539927 37.561796)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E71" t="n">
+        <v>24.2898063465903</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[55.64427, 37.407636]</t>
+          <t>[55.506978, 37.559354]</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>районная тепловая станция солнцевощорса ул., д. 11 с. 1</t>
+          <t>квартальная тепловая станция щербинкановостроевская улица, 2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>POINT (55.64427 37.407636)</t>
+          <t>POINT (55.506978 37.559354)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E72" t="n">
+        <v>27.94440769840759</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[55.611884, 37.512775]</t>
+          <t>[55.816389, 37.594444]</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>районная тепловая станция теплый станновоясеневский просп., д.8 корп.3</t>
+          <t>квартальная тепловая станция «миит»добролюбова улица, 18</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>POINT (55.611884 37.512775)</t>
+          <t>POINT (55.816389 37.594444)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E73" t="n">
+        <v>6.904094479890307</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>[55.858643, 37.433592]</t>
+          <t>[55.754722, 37.511944]</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>районная тепловая станция тушино-1 (ртс-31)планерная ул., д. 2</t>
+          <t>квартальная тепловая станция №11заречная улица, 4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>POINT (55.858643 37.433592)</t>
+          <t>POINT (55.754722 37.511944)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E74" t="n">
+        <v>6.645123978251283</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>[55.843352, 37.424848]</t>
+          <t>[55.668264, 37.626936]</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>районная тепловая станция тушино-2 (ртс-32)фабрициуса ул., д. 37</t>
+          <t>квартальная тепловая станция №17каширское шоссе, 4к2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>POINT (55.843352 37.424848)</t>
+          <t>POINT (55.668264 37.626936)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E75" t="n">
+        <v>9.761551054636772</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[55.83245, 37.408771]</t>
+          <t>[55.668728, 37.619445]</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>районная тепловая станция тушино-3 (ртс-37)походный пр., д. 2</t>
+          <t>квартальная тепловая станция №18криворожская улица, 4а</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>POINT (55.83245 37.408771)</t>
+          <t>POINT (55.668728 37.619445)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E76" t="n">
+        <v>9.693427885551026</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[55.841, 37.425125]</t>
+          <t>[55.734338, 37.494769]</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>районная тепловая станция тушино-4 (ртс-39)строительный пр., д. 12</t>
+          <t>квартальная тепловая станция №24кожиной василисы улица, 21</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>POINT (55.841 37.425125)</t>
+          <t>POINT (55.734338 37.494769)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E77" t="n">
+        <v>8.085159775444353</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[55.861271, 37.414052]</t>
+          <t>[55.731389, 37.462778]</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>районная тепловая станция тушино-5строительный проезд, д. 14 корп. 1</t>
+          <t>квартальная тепловая станция №26кастанаевская ул., д. 47</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>POINT (55.861271 37.414052)</t>
+          <t>POINT (55.731389 37.462778)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E78" t="n">
+        <v>10.10585102552659</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>[55.734248, 37.730763]</t>
+          <t>[55.814648, 37.727381]</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>районная тепловая станция фрезерфрезер шоссе, д. 14</t>
+          <t>квартальная тепловая станция №28бойцовая ул., д. 24</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>POINT (55.734248 37.730763)</t>
+          <t>POINT (55.814648 37.727381)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E79" t="n">
+        <v>9.499660850467601</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[55.865375, 37.481172]</t>
+          <t>[55.80814, 37.720434]</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>районная тепловая станция химки-ховринобеломорская ул., д. 38а</t>
+          <t>квартальная тепловая станция №42гражданская 4-я ул., д. 41</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>POINT (55.865375 37.481172)</t>
+          <t>POINT (55.80814 37.720434)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E80" t="n">
+        <v>8.687552659908558</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[55.623675, 37.586075]</t>
+          <t>[55.812479, 37.651062]</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>районная тепловая станция чертановоднепропетровская ул., д. 12</t>
+          <t>квартальная тепловая станция №44маломосковская ул., д. 20</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>POINT (55.623675 37.586075)</t>
+          <t>POINT (55.812479 37.651062)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E81" t="n">
+        <v>6.648711195477581</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[55.551265, 37.523679]</t>
+          <t>[55.662671, 37.607255]</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>районная тепловая станция южное бутовополяны улица, 75с3</t>
+          <t>квартальная тепловая станция №54фруктовая улица, 22к1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>POINT (55.551265 37.523679)</t>
+          <t>POINT (55.662671 37.607255)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E82" t="n">
+        <v>10.38823797666255</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[55.885278, 37.378056]</t>
+          <t>[55.659722, 37.355278]</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция захарьинокуркинское шоссе, д. 29</t>
+          <t xml:space="preserve">квартальная тепловая станция №58лазенки 6-я ул., 40 </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>POINT (55.885278 37.378056)</t>
+          <t>POINT (55.659722 37.355278)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E83" t="n">
+        <v>19.66376160795103</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>[55.710874, 37.862166]</t>
+          <t>[55.740556, 37.476389]</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция косинокосинская б. ул., д. 18г</t>
+          <t>котельная №60 фгуп им. хруничевафилевская б. улица, 41а</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>POINT (55.710874 37.862166)</t>
+          <t>POINT (55.740556 37.476389)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>boiler</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>9.038549746776186</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[55.645855, 37.699581]</t>
+          <t>[55.819983, 37.631395]</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>районная тепловая станция курьяноводонецкая ул., д. 40</t>
+          <t>квартальная тепловая станция №8цандера улица, 14</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>POINT (55.645855 37.699581)</t>
+          <t>POINT (55.819983 37.631395)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E85" t="n">
+        <v>7.198424527146812</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>[55.655426, 37.703021]</t>
+          <t>[55.537521, 37.573545]</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция курьяново-2курьяновская 2-я ул., 7</t>
+          <t>квартальная тепловая станция мелитопольская2-я мелитопольская улица, 4б</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>POINT (55.655426 37.703021)</t>
+          <t>POINT (55.537521 37.573545)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E86" t="n">
+        <v>24.45969002010994</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>[55.688344, 37.92872]</t>
+          <t>[55.773297, 37.572058]</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>районная тепловая станция некрасовкавольская 2-я ул, 17</t>
+          <t>котельная мэмз памяти революции 1905 г. пресненский вал улица, 27к10</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>POINT (55.688344 37.92872)</t>
+          <t>POINT (55.773297 37.572058)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>boiler</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>3.468718071164034</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>[55.681785, 37.61868]</t>
+          <t>[55.616338, 37.651764]</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция нижние котлываршавское шоссе, 28а</t>
+          <t>котельная гкб им. в.м. буянова бакинская улица, 26с3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>POINT (55.681785 37.61868)</t>
+          <t>POINT (55.616338 37.651764)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>boiler</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>15.67229683300358</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[55.539927, 37.561796]</t>
+          <t>[55.717665, 37.861457]</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция радиоцентр-4краснолиманская ул., 19б</t>
+          <t>малая котельнаязагрязнение воздуха для ближайших домоворанжерейная 8с1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>POINT (55.539927 37.561796)</t>
+          <t>POINT (55.717665 37.861457)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>boiler</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>15.88539462162765</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[55.506978, 37.559354]</t>
+          <t>[55.860912, 37.576923]</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция щербинкановостроевская улица, 2</t>
+          <t>мусоросжигательный завод № 2 гуп «экотехпром»на консервации с 2015 г.алтуфьевское шоссе, 33а</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>POINT (55.506978 37.559354)</t>
+          <t>POINT (55.860912 37.576923)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>waste</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>11.98130044211769</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[55.816389, 37.594444]</t>
+          <t>[55.599745, 37.635901]</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция «миит»добролюбова улица, 18</t>
+          <t>мусоросжигательный завод № 3 гуп «экотехпром»подольских курсантов ул., 22а</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>POINT (55.816389 37.594444)</t>
+          <t>POINT (55.599745 37.635901)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>waste</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>17.41051442925824</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[55.754722, 37.511944]</t>
+          <t>[55.719628, 37.934234]</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция №11заречная улица, 4</t>
+          <t>мусоросжигательный завод № 4 гуп «экотехпром»пехорская ул., 1а</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>POINT (55.754722 37.511944)</t>
+          <t>POINT (55.719628 37.934234)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>waste</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>20.28249598878102</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[55.668264, 37.626936]</t>
+          <t>[55.755833, 38.301667]</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция №17каширское шоссе, 4к2</t>
+          <t>мусоросжигательный завод (в перспективе)тимохово, богородский (ногинский) городской округ</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>POINT (55.668264 37.626936)</t>
+          <t>POINT (55.755833 38.301667)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>waste</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>42.93908640213068</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>[55.668728, 37.619445]</t>
+          <t>[55.5767, 37.6361]</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция №18криворожская улица, 4а</t>
+          <t>тэц-26 южнаямосэнергобирюлево западное</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>POINT (55.668728 37.619445)</t>
+          <t>POINT (55.5767 37.6361)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E94" t="n">
+        <v>19.97214474605592</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>[55.734338, 37.494769]</t>
+          <t>[55.893056, 37.507778]</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция №24кожиной василисы улица, 21</t>
+          <t>тэц-21мосэнергопромзона «коровино», дмитровский район</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>POINT (55.734338 37.494769)</t>
+          <t>POINT (55.893056 37.507778)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E95" t="n">
+        <v>16.76602185985589</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>[55.731389, 37.462778]</t>
+          <t>[55.8204, 37.7751]</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция №26кастанаевская ул., д. 47</t>
+          <t>тэц-23мосэнергометрогородок</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>POINT (55.731389 37.462778)</t>
+          <t>POINT (55.8204 37.7751)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E96" t="n">
+        <v>12.21368542730279</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>[55.814648, 37.727381]</t>
+          <t>[55.69493, 37.44782]</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция №28бойцовая ул., д. 24</t>
+          <t>тэц-25мосэнергоочаково-матвеевское</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>POINT (55.814648 37.727381)</t>
+          <t>POINT (55.69493 37.44782)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E97" t="n">
+        <v>12.64658310523505</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>[55.80814, 37.720434]</t>
+          <t>[55.69974, 37.5877]</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция №42гражданская 4-я ул., д. 41</t>
+          <t>тэц-20мосэнергоакадемический район</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>POINT (55.80814 37.720434)</t>
+          <t>POINT (55.69974 37.5877)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E98" t="n">
+        <v>6.519732523156521</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>[55.812479, 37.651062]</t>
+          <t>[55.78271, 37.50393]</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция №44маломосковская ул., д. 20</t>
+          <t>тэц-16мосэнергохорошево-мневники</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>POINT (55.812479 37.651062)</t>
+          <t>POINT (55.78271 37.50393)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E99" t="n">
+        <v>7.74801109532789</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>[55.662671, 37.607255]</t>
+          <t>[55.73554, 37.56224]</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция №54фруктовая улица, 22к1</t>
+          <t>тэц-12мосэнергодорогомилово</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>POINT (55.662671 37.607255)</t>
+          <t>POINT (55.73554 37.56224)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E100" t="n">
+        <v>4.15221292950676</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[55.659722, 37.355278]</t>
+          <t>[55.7236, 37.7]</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">квартальная тепловая станция №58лазенки 6-я ул., 40 </t>
+          <t>тэц-8мосэнергонижегородский район</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>POINT (55.659722 37.355278)</t>
+          <t>POINT (55.7236 37.7)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E101" t="n">
+        <v>6.286750302832631</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>[55.740556, 37.476389]</t>
+          <t>[55.75243, 37.732]</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>котельная №60 фгуп им. хруничевафилевская б. улица, 41а</t>
+          <t>тэц-11мосэнергошоссе энтузиастов</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>POINT (55.740556 37.476389)</t>
+          <t>POINT (55.75243 37.732)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>boiler</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>7.182418684500785</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>[55.819983, 37.631395]</t>
+          <t>[55.70466, 37.65171]</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция №8цандера улица, 14</t>
+          <t>тэц-9мосэнергоданиловский район</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>POINT (55.819983 37.631395)</t>
+          <t>POINT (55.70466 37.65171)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E103" t="n">
+        <v>6.078733929746236</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>[55.537521, 37.573545]</t>
+          <t>[55.76, 37.528333]</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>квартальная тепловая станция мелитопольская2-я мелитопольская улица, 4б</t>
+          <t>тэс международная и ртс красная пресняоао «тпе-сити»пресненский район</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>POINT (55.537521 37.573545)</t>
+          <t>POINT (55.76 37.528333)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
+      </c>
+      <c r="E104" t="n">
+        <v>5.634238646581533</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>[55.773297, 37.572058]</t>
+          <t>[55.659444, 37.401944]</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>котельная мэмз памяти революции 1905 г. пресненский вал улица, 27к10</t>
+          <t>гтэс «терёшково»ооо «росмикс»район солнцево</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>POINT (55.773297 37.572058)</t>
+          <t>POINT (55.659444 37.401944)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>boiler</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>17.295176945351</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>[55.616338, 37.651764]</t>
+          <t>[55.722222, 37.871389]</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>котельная гкб им. в.м. буянова бакинская улица, 26с3</t>
+          <t>гтэс «кожухово» (строится)ооо «росмикс»район косино-ухтомский</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>POINT (55.616338 37.651764)</t>
+          <t>POINT (55.722222 37.871389)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>boiler</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>16.36327698993552</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>[55.717665, 37.861457]</t>
+          <t>[55.648333, 37.641111]</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>малая котельнаязагрязнение воздуха для ближайших домоворанжерейная 8с1</t>
+          <t>гтэс втк-инвест и ртс «коломенская» (моэк)промзона «котляково», москворечье-сабурово</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>POINT (55.717665 37.861457)</t>
+          <t>POINT (55.648333 37.641111)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>boiler</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>12.05325556750526</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>[55.860912, 37.576923]</t>
+          <t>[55.791389, 37.384722]</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>мусоросжигательный завод № 2 гуп «экотехпром»на консервации с 2015 г.алтуфьевское шоссе, 33а</t>
+          <t>пгу-тэс «строгино» и ртс «строгино»моэкстрогино</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>POINT (55.860912 37.576923)</t>
+          <t>POINT (55.791389 37.384722)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>waste</t>
-        </is>
+          <t>factory</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>15.15266312603932</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>[55.599745, 37.635901]</t>
+          <t>[55.611389, 37.265278]</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>мусоросжигательный завод № 3 гуп «экотехпром»подольских курсантов ул., 22а</t>
+          <t>гтэс и ртс внукововнуково</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>POINT (55.599745 37.635901)</t>
+          <t>POINT (55.611389 37.265278)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>waste</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>27.38706811530492</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>[55.719628, 37.934234]</t>
+          <t>[55.74743, 37.63255]</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>мусоросжигательный завод № 4 гуп «экотехпром»пехорская ул., 1а</t>
+          <t>тэц гэс-1 (государственная электрическая станция № 1)мосэнерго</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>POINT (55.719628 37.934234)</t>
+          <t>POINT (55.74743 37.63255)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>waste</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1.314436980101553</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>[56.161944, 37.106111]</t>
+          <t>[55.518568, 37.579966]</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>мусоросжигательный завод (в перспективе)хметьево, солнечногорский район</t>
+          <t>гтэс щербинка(строится)предполагаемое окончание строительства — 2020 г.южное бутово</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>POINT (56.161944 37.106111)</t>
+          <t>POINT (55.518568 37.579966)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>waste</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>26.51788015731198</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>[55.345278, 36.856111]</t>
+          <t>[55.6335, 37.8207]</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>мусоросжигательный завод (в перспективе)могутово, наро-фоминский городской округ</t>
+          <t>тэц-22мосэнергодзержинский</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>POINT (55.345278 36.856111)</t>
+          <t>POINT (55.6335 37.8207)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>waste</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>18.66065749383824</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>[55.755833, 38.301667]</t>
+          <t>[55.91591, 37.68958]</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>мусоросжигательный завод (в перспективе)тимохово, богородский (ногинский) городской округ</t>
+          <t>тэц-27мосэнергомытищи</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>POINT (55.755833 38.301667)</t>
+          <t>POINT (55.91591 37.68958)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>waste</t>
-        </is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>18.38701181909829</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>[55.248279, 38.480119]</t>
+          <t>[55.910902, 38.016681]</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>мусоросжигательный завод (в перспективе)свистягино, воскресенский район</t>
+          <t>мебельные фабрики «лидер» и «роникон»щелково</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>POINT (55.248279 38.480119)</t>
+          <t>POINT (55.910902 38.016681)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>waste</t>
-        </is>
+          <t>factory</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>30.38233168256445</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>[55.5767, 37.6361]</t>
+          <t>[55.850234, 37.594601]</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>тэц-26 южнаямосэнергобирюлево западное</t>
+          <t>мусороперерабатывающий заводсигнальный пр., 37б, стр. 2, москва</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>POINT (55.5767 37.6361)</t>
+          <t>POINT (55.850234 37.594601)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>waste</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>10.61541108903396</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>[55.893056, 37.507778]</t>
+          <t>[55.7296379, 37.9486656, 55.7309911, 37.9404688, 55.738409, 37.9466486, 55.7379741, 37.9500818, 55.739472, 37.9519701, 55.7351231, 37.9554462, 55.7332867, 37.9513693, 55.730097, 37.9502535]</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>тэц-21мосэнергопромзона «коровино», дмитровский район</t>
+          <t>полигон тбо кучинозакрыт. действовал в 1964-2017 гг. рекультивация с 2018 г.балашиха</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>POINT (55.893056 37.507778)</t>
+          <t>POLYGON ((55.7296379 37.9486656, 55.7309911 37.9404688, 55.738409 37.9466486, 55.7379741 37.9500818, 55.739472 37.9519701, 55.7351231 37.9554462, 55.7332867 37.9513693, 55.730097 37.9502535, 55.7296379 37.9486656))</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>20.45479040698587</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>[55.8204, 37.7751]</t>
+          <t>[55.7008461, 38.0393457, 55.697557, 38.0581856, 55.6915827, 38.0459118, 55.6941951, 38.0374575, 55.6952593, 38.0371571]</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>тэц-23мосэнергометрогородок</t>
+          <t>полигон тбо торбеевоэксплуатация до 2020 г.красково, люберецкий район</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>POINT (55.8204 37.7751)</t>
+          <t>POLYGON ((55.7008461 38.0393457, 55.697557 38.0581856, 55.6915827 38.0459118, 55.6941951 38.0374575, 55.6952593 38.0371571, 55.7008461 38.0393457))</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>27.1849600285266</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>[55.69493, 37.44782]</t>
+          <t>[55.9661009, 37.7609217, 55.9659207, 37.7638185, 55.9620655, 37.7631104, 55.9619574, 37.7583897, 55.9608524, 37.7573383, 55.9610806, 37.7545702, 55.9642634, 37.7484334, 55.96502, 37.7504289, 55.9636869, 37.755965, 55.9640592, 37.7594197, 55.9661009, 37.7609646]</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>тэц-25мосэнергоочаково-матвеевское</t>
+          <t>полигон тбо каргашинозакрыт в 2019 г.мытищи</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>POINT (55.69493 37.44782)</t>
+          <t>POLYGON ((55.9661009 37.7609217, 55.9659207 37.7638185, 55.9620655 37.7631104, 55.9619574 37.7583897, 55.9608524 37.7573383, 55.9610806 37.7545702, 55.9642634 37.7484334, 55.96502 37.7504289, 55.9636869 37.755965, 55.9640592 37.7594197, 55.9661009 37.7609646, 55.9661009 37.7609217))</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>24.40992167250569</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>[55.69974, 37.5877]</t>
+          <t>[55.7537428, 38.2985115, 55.7517141, 38.2925034, 55.752487, 38.2840919, 55.756834, 38.2760239, 55.7605044, 38.2794571, 55.7580897, 38.2964516]</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>тэц-20мосэнергоакадемический район</t>
+          <t>полигон тбо тимоховоэксплуатация до 2030 г.ногинск</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>POINT (55.69974 37.5877)</t>
+          <t>POLYGON ((55.7537428 38.2985115, 55.7517141 38.2925034, 55.752487 38.2840919, 55.756834 38.2760239, 55.7605044 38.2794571, 55.7580897 38.2964516, 55.7537428 38.2985115))</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>41.32872270956905</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>[55.78271, 37.50393]</t>
+          <t>[56.0703527, 38.0839294, 56.0730714, 38.0872124, 56.0705084, 38.0960101, 56.0692808, 38.0968791, 56.066981, 38.0944812]</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>тэц-16мосэнергохорошево-мневники</t>
+          <t>полигон тбо царевозакрыт в 2017 г.пушкинский район</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>POINT (55.78271 37.50393)</t>
+          <t>POLYGON ((56.0703527 38.0839294, 56.0730714 38.0872124, 56.0705084 38.0960101, 56.0692808 38.0968791, 56.066981 38.0944812, 56.0703527 38.0839294))</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>45.56760328728576</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>[55.73554, 37.56224]</t>
+          <t>[55.6205571, 36.9110477, 55.621396, 36.907363, 55.6223019, 36.9051898, 55.6234165, 36.9049108, 55.624204, 36.9084996, 55.6239011, 36.9088, 55.6240617, 36.9093177, 55.6249037, 36.9099131, 55.624834, 36.9106333, 55.6251081, 36.9110785, 55.6249234, 36.9114219, 55.6241919, 36.9115412, 55.622851, 36.9129, 55.621971, 36.913277, 55.6207389, 36.9132578]</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>тэц-12мосэнергодорогомилово</t>
+          <t>полигон тбо часцызакрыт в 2014 г., незаконно принимал отходы, горел в 2018 г.одинцовский район</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>POINT (55.73554 37.56224)</t>
+          <t>POLYGON ((55.6205571 36.9110477, 55.621396 36.907363, 55.6223019 36.9051898, 55.6234165 36.9049108, 55.624204 36.9084996, 55.6239011 36.9088, 55.6240617 36.9093177, 55.6249037 36.9099131, 55.624834 36.9106333, 55.6251081 36.9110785, 55.6249234 36.9114219, 55.6241919 36.9115412, 55.622851 36.9129, 55.621971 36.913277, 55.6207389 36.9132578, 55.6205571 36.9110477))</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>46.73577557712998</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>[55.7236, 37.7]</t>
+          <t>[55.9894763, 38.0472207, 55.9883961, 38.0527139, 55.9856834, 38.0514693, 55.984159, 38.0486906, 55.9847111, 38.0467808, 55.9865717, 38.04721, 55.9870398, 38.045944]</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>тэц-8мосэнергонижегородский район</t>
+          <t>полигон тбо сабуровоэксплуатация до 2019 г.щелковский район</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>POINT (55.7236 37.7)</t>
+          <t>POLYGON ((55.9894763 38.0472207, 55.9883961 38.0527139, 55.9856834 38.0514693, 55.984159 38.0486906, 55.9847111 38.0467808, 55.9865717 38.04721, 55.9870398 38.045944, 55.9894763 38.0472207))</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>37.02634407127681</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>[55.75243, 37.732]</t>
+          <t>[55.3693983, 38.0124781, 55.3718233, 38.0198407, 55.3678154, 38.0239552, 55.3659983, 38.018446]</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>тэц-11мосэнергошоссе энтузиастов</t>
+          <t>полигон тбо жирошкинозакрыт в 2009 г.домодедово</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>POINT (55.75243 37.732)</t>
+          <t>POLYGON ((55.3693983 38.0124781, 55.3718233 38.0198407, 55.3678154 38.0239552, 55.3659983 38.018446, 55.3693983 38.0124781))</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>49.7070116589944</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>[55.70466, 37.65171]</t>
+          <t>[55.7497089, 36.8891072, 55.7512546, 36.8902123, 55.7510373, 36.8930876, 55.7496832, 36.895802, 55.7486325, 36.8925726]</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>тэц-9мосэнергоданиловский район</t>
+          <t>полигон тбо супоневозакрыт в 2000 г.одинцовский район</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>POINT (55.70466 37.65171)</t>
+          <t>POLYGON ((55.7497089 36.8891072, 55.7512546 36.8902123, 55.7510373 36.8930876, 55.7496832 36.895802, 55.7486325 36.8925726, 55.7497089 36.8891072))</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>45.3372718715433</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>[55.76, 37.528333]</t>
+          <t>[55.8676722, 36.9294477, 55.8685872, 36.9350266, 55.8670822, 36.9386101, 55.8648066, 36.937902, 55.8652159, 36.9357347, 55.8643355, 36.9349462, 55.865363, 36.931]</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>тэс международная и ртс красная пресняоао «тпе-сити»пресненский район</t>
+          <t>полигон тбо павловскоезакрыт в 2015 г.истринский район</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>POINT (55.76 37.528333)</t>
+          <t>POLYGON ((55.8676722 36.9294477, 55.8685872 36.9350266, 55.8670822 36.9386101, 55.8648066 36.937902, 55.8652159 36.9357347, 55.8643355 36.9349462, 55.865363 36.931, 55.8676722 36.9294477))</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>44.32032791156853</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>[55.659444, 37.401944]</t>
+          <t>[55.5627005, 38.2788992, 55.5566328, 38.2860017, 55.5554677, 38.2828903, 55.5569939, 38.2801223, 55.5564705, 38.2778692, 55.5588825, 38.2761043, 55.5593861, 38.2752836, 55.560178, 38.2753265, 55.5606406, 38.2748115]</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>гтэс «терёшково»ооо «росмикс»район солнцево</t>
+          <t>полигон тбо сафоновозакрыт в 2013 г.раменское</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>POINT (55.659444 37.401944)</t>
+          <t>POLYGON ((55.5627005 38.2788992, 55.5566328 38.2860017, 55.5554677 38.2828903, 55.5569939 38.2801223, 55.5564705 38.2778692, 55.5588825 38.2761043, 55.5593861 38.2752836, 55.560178 38.2753265, 55.5606406 38.2748115, 55.5627005 38.2788992))</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>46.71563568314054</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>[55.722222, 37.871389]</t>
+          <t>[55.9051191, 37.5014019, 55.902593, 37.5001574, 55.9018472, 37.4985695, 55.8998743, 37.4974966, 55.8996578, 37.4956512, 55.9020878, 37.4917889, 55.9056964, 37.493763]</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>гтэс «кожухово» (строится)ооо «росмикс»район косино-ухтомский</t>
+          <t>полигон тбо левобережныйзакрыт в 2012 г.химки</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>POINT (55.722222 37.871389)</t>
+          <t>POLYGON ((55.9051191 37.5014019, 55.902593 37.5001574, 55.9018472 37.4985695, 55.8998743 37.4974966, 55.8996578 37.4956512, 55.9020878 37.4917889, 55.9056964 37.493763, 55.9051191 37.5014019))</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>17.72483583912419</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>[55.648333, 37.641111]</t>
+          <t>[55.9107287, 37.5030327, 55.9113541, 37.5090623, 55.9075536, 37.5085044, 55.9074814, 37.5073242, 55.9078422, 37.5033331, 55.9107408, 37.5030327]</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>гтэс втк-инвест и ртс «коломенская» (моэк)промзона «котляково», москворечье-сабурово</t>
+          <t>полигон тбо долгопрудныйзакрыт в 2014 г.долгопрудный</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>POINT (55.648333 37.641111)</t>
+          <t>POLYGON ((55.9107287 37.5030327, 55.9113541 37.5090623, 55.9075536 37.5085044, 55.9074814 37.5073242, 55.9078422 37.5033331, 55.9107408 37.5030327, 55.9107287 37.5030327))</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>18.23188269941874</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>[55.791389, 37.384722]</t>
+          <t>[55.4371898, 37.6510477, 55.4403303, 37.6495028, 55.4431298, 37.6545668, 55.4418153, 37.6571417, 55.4431055, 37.6625061, 55.4411093, 37.6644373, 55.4400382, 37.6606607, 55.4379202, 37.6603603, 55.436922, 37.6562834, 55.4373602, 37.653923]</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>пгу-тэс «строгино» и ртс «строгино»моэкстрогино</t>
+          <t>щербинка полигон тбо закрыт в 1988 г.домодедовский район</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>POINT (55.791389 37.384722)</t>
+          <t>POLYGON ((55.4371898 37.6510477, 55.4403303 37.6495028, 55.4431298 37.6545668, 55.4418153 37.6571417, 55.4431055 37.6625061, 55.4411093 37.6644373, 55.4400382 37.6606607, 55.4379202 37.6603603, 55.436922 37.6562834, 55.4373602 37.653923, 55.4371898 37.6510477))</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>34.88676128310291</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>[55.611389, 37.265278]</t>
+          <t>[55.6752493, 37.9657245, 55.6744628, 37.9646087, 55.6751404, 37.9635572, 55.6755396, 37.9637933, 55.6758905, 37.9620981, 55.6774271, 37.9622054, 55.6794597, 37.964437, 55.680113, 37.964673, 55.6800646, 37.9650164, 55.6782014, 37.9643297, 55.6772698, 37.963171, 55.6764713, 37.9644799, 55.6758784, 37.9641366]</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>гтэс и ртс внукововнуково</t>
+          <t>полигон тбо машковозакрыт в 2011 г.люберецкий район</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>POINT (55.611389 37.265278)</t>
+          <t>POLYGON ((55.6752493 37.9657245, 55.6744628 37.9646087, 55.6751404 37.9635572, 55.6755396 37.9637933, 55.6758905 37.9620981, 55.6774271 37.9622054, 55.6794597 37.964437, 55.680113 37.964673, 55.6800646 37.9650164, 55.6782014 37.9643297, 55.6772698 37.963171, 55.6764713 37.9644799, 55.6758784 37.9641366, 55.6752493 37.9657245))</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>23.33951550965531</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>[55.74743, 37.63255]</t>
+          <t>[55.460244, 37.779, 55.462275, 37.7843, 55.463857, 37.78548, 55.464842, 37.781639, 55.46365, 37.78, 55.462628, 37.781746, 55.46039, 37.778828]</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>гэс-1 (государственная электрическая станция № 1)мосэнерго</t>
+          <t>полигон тбо домодедовозакрыт до 2009 г.домодедовский район</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>POINT (55.74743 37.63255)</t>
+          <t>POLYGON ((55.460244 37.779, 55.462275 37.7843, 55.463857 37.78548, 55.464842 37.781639, 55.46365 37.78, 55.462628 37.781746, 55.46039 37.778828, 55.460244 37.779))</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>33.99868235330415</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>[55.518568, 37.579966]</t>
+          <t>[55.5058583, 38.1408942, 55.5061985, 38.1423318, 55.504315, 38.1500995, 55.5026865, 38.1480181, 55.5022946, 38.1455666]</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>гтэс щербинка(строится)предполагаемое окончание строительства — 2020 г.южное бутово</t>
+          <t>полигон тбо «становое»закрыт до 2009 г.раменский район</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>POINT (55.518568 37.579966)</t>
+          <t>POLYGON ((55.5058583 38.1408942, 55.5061985 38.1423318, 55.504315 38.1500995, 55.5026865 38.1480181, 55.5022946 38.1455666, 55.5058583 38.1408942))</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>43.12727010284481</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>[54.85771, 38.26143]</t>
+          <t>[55.5462853, 38.1160355, 55.546613, 38.1154346, 55.5471836, 38.1157136, 55.5476813, 38.1144261, 55.5486645, 38.1129241, 55.5488588, 38.1132674, 55.5484946, 38.1166792, 55.5477663, 38.1177521, 55.546346, 38.11728]</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>каширская грэсинтер раокашира</t>
+          <t>полигон тбо наркомводзакрыт в 2003 г.раменский район</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>POINT (54.85771 38.26143)</t>
+          <t>POLYGON ((55.5462853 38.1160355, 55.546613 38.1154346, 55.5471836 38.1157136, 55.5476813 38.1144261, 55.5486645 38.1129241, 55.5488588 38.1132674, 55.5484946 38.1166792, 55.5477663 38.1177521, 55.546346 38.11728, 55.5462853 38.1160355))</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>38.77374367083603</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>[55.58299, 39.56282]</t>
+          <t>[56.0429153, 36.9994104, 56.0454802, 37.002672, 56.0462352, 37.0011485, 56.0469663, 37.0024788, 56.0472779, 37.0036805, 56.0482306, 37.0052361, 56.047182, 37.0072424, 56.0459955, 37.0081437, 56.0447731, 37.0105684, 56.0430082, 37.0079559, 56.0445663, 37.0047694, 56.0426726, 37.0022911, 56.0425797, 37.000891]</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>шатурская грэсюнипрошатура</t>
+          <t>незаконный полигон тбо — рекультивируемый поваровский песчаный карьердействовал в 2002-2012 гг. закрыт и засыпан грунтомповарово, солнечногорский район</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>POINT (55.58299 39.56282)</t>
+          <t>POLYGON ((56.0429153 36.9994104, 56.0454802 37.002672, 56.0462352 37.0011485, 56.0469663 37.0024788, 56.0472779 37.0036805, 56.0482306 37.0052361, 56.047182 37.0072424, 56.0459955 37.0081437, 56.0447731 37.0105684, 56.0430082 37.0079559, 56.0445663 37.0047694, 56.0426726 37.0022911, 56.0425797 37.000891, 56.0429153 36.9994104))</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>49.77735027420749</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>[55.6335, 37.8207]</t>
+          <t>[55.7210678, 38.0225444, 55.7207778, 38.0250549, 55.7196055, 38.0245399, 55.719255, 38.0249476, 55.7176354, 38.0243039, 55.7158707, 38.0205059, 55.7186628, 38.0192828, 55.7187232, 38.0203772]</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>тэц-22мосэнергодзержинский</t>
+          <t>саввинская свалка  полигон тбо незаконная свалка, засыпана грунтом в 2012 г.пуршево, балашихинский район</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>POINT (55.6335 37.8207)</t>
+          <t>POLYGON ((55.7210678 38.0225444, 55.7207778 38.0250549, 55.7196055 38.0245399, 55.719255 38.0249476, 55.7176354 38.0243039, 55.7158707 38.0205059, 55.7186628 38.0192828, 55.7187232 38.0203772, 55.7210678 38.0225444))</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>25.55798378606246</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>[55.91591, 37.68958]</t>
+          <t>[55.7219621, 38.0616403, 55.7197747, 38.0601382, 55.7188924, 38.0623269, 55.7196417, 38.0642796, 55.7200164, 38.0718112, 55.7207899, 38.0733132, 55.721805, 38.0722833, 55.7218413, 38.0702877, 55.7216963, 38.0651593]</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>тэц-27мосэнергомытищи</t>
+          <t>полигон тбо пуршеводействовал в 2006-2013 гг.пуршево, балашихинский район</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>POINT (55.91591 37.68958)</t>
+          <t>POLYGON ((55.7219621 38.0616403, 55.7197747 38.0601382, 55.7188924 38.0623269, 55.7196417 38.0642796, 55.7200164 38.0718112, 55.7207899 38.0733132, 55.721805 38.0722833, 55.7218413 38.0702877, 55.7216963 38.0651593, 55.7219621 38.0616403))</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>28.07526807820243</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>[55.88666, 38.78517]</t>
+          <t>[55.997709, 37.375145, 55.997181, 37.3773766, 55.995933, 37.3933411, 55.996077, 37.3960018, 55.996941, 37.3980618, 55.9989089, 37.399435, 56.0006368, 37.395401, 56.0023166, 37.3802948, 56.0030365, 37.3792648, 56.0029885, 37.3778915]</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>грэс-3мосэнергоэлектрогорск</t>
+          <t>полигон тбо шемякино (незаконный)действовал в 2008-2010 гг.химки</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>POINT (55.88666 38.78517)</t>
+          <t>POLYGON ((55.997709 37.375145, 55.997181 37.3773766, 55.995933 37.3933411, 55.996077 37.3960018, 55.996941 37.3980618, 55.9989089 37.399435, 56.0006368 37.395401, 56.0023166 37.3802948, 56.0030365 37.3792648, 56.0029885 37.3778915, 55.997709 37.375145))</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>30.14025915546915</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>[54.90243, 38.05671]</t>
+          <t>[55.4392105, 37.6776123, 55.4378958, 37.672677, 55.4328559, 37.6770544, 55.4332942, 37.6817751]</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>тэц-17мосэнергоступино</t>
+          <t>полигон тбо щербинка-2 (незаконный)закрыт после 2013 г.домодедовский район</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>POINT (54.90243 38.05671)</t>
+          <t>POLYGON ((55.4392105 37.6776123, 55.4378958 37.672677, 55.4328559 37.6770544, 55.4332942 37.6817751, 55.4392105 37.6776123))</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>35.44723099623199</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>[55.808, 38.993]</t>
+          <t>[55.382609, 37.293241, 55.385888, 37.2947, 55.385632, 37.296781, 55.386059, 37.298069, 55.385425, 37.300472, 55.385437, 37.301373, 55.38434, 37.306802, 55.382974, 37.305344, 55.379452, 37.298691, 55.379464, 37.296717]</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>тэц-6входит в состав грэс-3, мосэнергоорехово-зуево</t>
+          <t>полигон тбо малинкив 2017 г. принято решение о консервации. также рассматривался проект расширениятроицкий округ</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>POINT (55.808 38.993)</t>
+          <t>POLYGON ((55.382609 37.293241, 55.385888 37.2947, 55.385632 37.296781, 55.386059 37.298069, 55.385425 37.300472, 55.385437 37.301373, 55.38434 37.306802, 55.382974 37.305344, 55.379452 37.298691, 55.379464 37.296717, 55.382609 37.293241))</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>45.77128148123731</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>[55.775833, 38.659167]</t>
+          <t>[55.6096911, 37.4190044, 55.6148296, 37.4262142, 55.6140056, 37.4326515, 55.6160899, 37.4361706, 55.6143449, 37.4394321, 55.6092063, 37.4327374]</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>тэц-30входит в состав грэс-3, мосэнергопавловский посад</t>
+          <t>полигон тбо саларьевозакрыт в 2007 г.новомосковский округ</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>POINT (55.775833 38.659167)</t>
+          <t>POLYGON ((55.6096911 37.4190044, 55.6148296 37.4262142, 55.6140056 37.4326515, 55.6160899 37.4361706, 55.6143449 37.4394321, 55.6092063 37.4327374, 55.6096911 37.4190044))</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>19.29672550166438</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>[55.309444, 38.688056]</t>
+          <t>[55.5744711, 37.4180603, 55.570031, 37.4127817, 55.573258, 37.4066877, 55.5740587, 37.4083614, 55.5763635, 37.4063444, 55.5783528, 37.4090052, 55.5760238, 37.4132967]</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>тэц ао «воскресенские минеральные удобрения»ао «воскресенские минеральные удобрения»воскресенск</t>
+          <t>полигон тбо летовозакрыт в 2007 г.новомосковский округ</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>POINT (55.309444 38.688056)</t>
+          <t>POLYGON ((55.5744711 37.4180603, 55.570031 37.4127817, 55.573258 37.4066877, 55.5740587 37.4083614, 55.5763635 37.4063444, 55.5783528 37.4090052, 55.5760238 37.4132967, 55.5744711 37.4180603))</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>thermal</t>
-        </is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>23.72393464763168</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>[55.5646601, 39.576273]</t>
+          <t>[55.677215, 37.936163, 55.67833, 37.96217, 55.687107, 37.961569, 55.689204, 37.958672, 55.691047, 37.952535, 55.686829, 37.948115, 55.687895, 37.945154, 55.687362, 37.937257, 55.68695, 37.936528, 55.686804, 37.934554]</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>шатурский мебельный комбинатпроизводство дсп и мебелишатура</t>
+          <t>люберецкие очистные сооружениямосводоканалнекрасовка</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>POINT (55.5646601 39.576273)</t>
+          <t>POLYGON ((55.677215 37.936163, 55.67833 37.96217, 55.687107 37.961569, 55.689204 37.958672, 55.691047 37.952535, 55.686829 37.948115, 55.687895 37.945154, 55.687362 37.937257, 55.68695 37.936528, 55.686804 37.934554, 55.677215 37.936163))</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>waste</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>21.33756319805797</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>[55.910902, 38.016681]</t>
+          <t>[55.653546, 37.691369, 55.659927, 37.699738, 55.66313, 37.700896, 55.669339, 37.690082, 55.665192, 37.680855, 55.663469, 37.67931, 55.65556, 37.677507, 55.655008, 37.688075]</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>мебельные фабрики «лидер» и «роникон»щелково</t>
+          <t>курьяновские очистные сооружениякрупнейшие в европе сооружения по очистке канализационных стоков. источник неприятных запахов (сероводород)мосводоканалпечатники</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>POINT (55.910902 38.016681)</t>
+          <t>POLYGON ((55.653546 37.691369, 55.659927 37.699738, 55.66313 37.700896, 55.669339 37.690082, 55.665192 37.680855, 55.663469 37.67931, 55.65556 37.677507, 55.655008 37.688075, 55.653546 37.691369))</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>factory</t>
-        </is>
+          <t>waste</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>10.64421348936033</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>[55.850234, 37.594601]</t>
+          <t>[55.979007, 37.254843, 55.974676, 37.252525, 55.974486, 37.253614, 55.974697, 37.253732, 55.974516, 37.255406, 55.974829, 37.255556, 55.974763, 37.256028, 55.978523, 37.258035]</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>мусороперерабатывающий заводсигнальный пр., 37б, стр. 2, москва</t>
+          <t>очистные сооружения зеленоградамосводоканалсавёлки</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>POINT (55.850234 37.594601)</t>
+          <t>POLYGON ((55.979007 37.254843, 55.974676 37.252525, 55.974486 37.253614, 55.974697 37.253732, 55.974516 37.255406, 55.974829 37.255556, 55.974763 37.256028, 55.978523 37.258035, 55.979007 37.254843))</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>waste</t>
         </is>
+      </c>
+      <c r="E144" t="n">
+        <v>33.27686238378249</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>[55.7296379, 37.9486656, 55.7309911, 37.9404688, 55.738409, 37.9466486, 55.7379741, 37.9500818, 55.739472, 37.9519701, 55.7351231, 37.9554462, 55.7332867, 37.9513693, 55.730097, 37.9502535]</t>
+          <t>[55.521695, 37.526743, 55.522894, 37.521185, 55.5243, 37.521196, 55.524684, 37.521421, 55.525134, 37.522108, 55.525578, 37.524222]</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>полигон тбо кучинозакрыт. действовал в 1964-2017 гг. рекультивация с 2018 г.балашиха</t>
+          <t>очистные сооружения южное бутовомосводоканалюжное бутово</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>POLYGON ((55.7296379 37.9486656, 55.7309911 37.9404688, 55.738409 37.9466486, 55.7379741 37.9500818, 55.739472 37.9519701, 55.7351231 37.9554462, 55.7332867 37.9513693, 55.730097 37.9502535, 55.7296379 37.9486656))</t>
+          <t>POLYGON ((55.521695 37.526743, 55.522894 37.521185, 55.5243 37.521196, 55.524684 37.521421, 55.525134 37.522108, 55.525578 37.524222, 55.521695 37.526743))</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>[56.0196802, 36.0268843, 56.0249806, 36.0319698, 56.0234457, 36.0433638, 56.0220907, 36.0455954, 56.0167298, 36.0384929]</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>полигон тбо ядровозакрыт в 2018 г.волоколамск</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>POLYGON ((56.0196802 36.0268843, 56.0249806 36.0319698, 56.0234457 36.0433638, 56.0220907 36.0455954, 56.0167298 36.0384929, 56.0196802 36.0268843))</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>[56.4277276, 37.5688756, 56.4283802, 37.5741327, 56.4260189, 37.5737464, 56.4244881, 37.5731027, 56.4243101, 37.570163, 56.4265766, 37.5685322, 56.426802, 37.5691974]</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>полигон тбо непейнорасширение в 2019 г.дмитров</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>POLYGON ((56.4277276 37.5688756, 56.4283802 37.5741327, 56.4260189 37.5737464, 56.4244881 37.5731027, 56.4243101 37.570163, 56.4265766 37.5685322, 56.426802 37.5691974, 56.4277276 37.5688756))</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>[54.7800734, 38.7536019, 54.7810448, 38.7529582, 54.7825669, 38.7535697, 54.7834887, 38.7569278, 54.7832103, 38.7594706, 54.7825545, 38.7607473]</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>полигон тбо солоповозакрыт в конце 2016 г.солопово, зарайский район</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>POLYGON ((54.7800734 38.7536019, 54.7810448 38.7529582, 54.7825669 38.7535697, 54.7834887 38.7569278, 54.7832103 38.7594706, 54.7825545 38.7607473, 54.7800734 38.7536019))</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>[55.0397291, 38.6605239, 55.036718, 38.668996, 55.035259, 38.668349, 55.033102, 38.664922, 55.0353271, 38.6633134, 55.0354992, 38.6605239, 55.0380323, 38.6597943]</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>полигон тбо воловичисуществует с 1990 г. ведутся работы по расширению полигонаколомна</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.0397291 38.6605239, 55.036718 38.668996, 55.035259 38.668349, 55.033102 38.664922, 55.0353271 38.6633134, 55.0354992 38.6605239, 55.0380323 38.6597943, 55.0397291 38.6605239))</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>[54.8557745, 38.9400423, 54.8590106, 38.9417589, 54.861703, 38.9442265, 54.8601221, 38.9475954, 54.855651, 38.9440548, 54.8555028, 38.9421451]</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>полигон тбо астаповодействует, планировался к закрытию в 2017 г. астапово, луховицкий район</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>POLYGON ((54.8557745 38.9400423, 54.8590106 38.9417589, 54.861703 38.9442265, 54.8601221 38.9475954, 54.855651 38.9440548, 54.8555028 38.9421451, 54.8557745 38.9400423))</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>[55.7008461, 38.0393457, 55.697557, 38.0581856, 55.6915827, 38.0459118, 55.6941951, 38.0374575, 55.6952593, 38.0371571]</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>полигон тбо торбеевоэксплуатация до 2020 г.красково, люберецкий район</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.7008461 38.0393457, 55.697557 38.0581856, 55.6915827 38.0459118, 55.6941951 38.0374575, 55.6952593 38.0371571, 55.7008461 38.0393457))</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>[55.4586622, 35.6694853, 55.4565452, 35.6683052, 55.4560098, 35.6655157, 55.45646, 35.6639922, 55.4570319, 35.6636059, 55.4596477, 35.6651723, 55.459964, 35.6669748, 55.459596, 35.6686404]</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>полигон тбо храбрововедутся работы по расширению полигонахраброво, можайский район</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.4586622 35.6694853, 55.4565452 35.6683052, 55.4560098 35.6655157, 55.45646 35.6639922, 55.4570319 35.6636059, 55.4596477 35.6651723, 55.459964 35.6669748, 55.459596 35.6686404, 55.4586622 35.6694853))</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>[55.9661009, 37.7609217, 55.9659207, 37.7638185, 55.9620655, 37.7631104, 55.9619574, 37.7583897, 55.9608524, 37.7573383, 55.9610806, 37.7545702, 55.9642634, 37.7484334, 55.96502, 37.7504289, 55.9636869, 37.755965, 55.9640592, 37.7594197, 55.9661009, 37.7609646]</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>полигон тбо каргашинозакрыт в 2019 г.мытищи</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.9661009 37.7609217, 55.9659207 37.7638185, 55.9620655 37.7631104, 55.9619574 37.7583897, 55.9608524 37.7573383, 55.9610806 37.7545702, 55.9642634 37.7484334, 55.96502 37.7504289, 55.9636869 37.755965, 55.9640592 37.7594197, 55.9661009 37.7609646, 55.9661009 37.7609217))</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>[55.7537428, 38.2985115, 55.7517141, 38.2925034, 55.752487, 38.2840919, 55.756834, 38.2760239, 55.7605044, 38.2794571, 55.7580897, 38.2964516]</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>полигон тбо тимоховоэксплуатация до 2030 г.ногинск</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.7537428 38.2985115, 55.7517141 38.2925034, 55.752487 38.2840919, 55.756834 38.2760239, 55.7605044 38.2794571, 55.7580897 38.2964516, 55.7537428 38.2985115))</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>[54.8576519, 38.484689, 54.8604556, 38.4869421, 54.8606902, 38.4858263, 54.8613942, 38.4854829, 54.8619191, 38.4834605, 54.8608076, 38.4825915, 54.8589797, 38.4827739, 54.8579762, 38.4833238]</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>полигон тбо озерыэксплуатация до 2021 г.озеры</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>POLYGON ((54.8576519 38.484689, 54.8604556 38.4869421, 54.8606902 38.4858263, 54.8613942 38.4854829, 54.8619191 38.4834605, 54.8608076 38.4825915, 54.8589797 38.4827739, 54.8579762 38.4833238, 54.8576519 38.484689))</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>[55.8905159, 38.9311682, 55.8910303, 38.936031, 55.8918305, 38.9370395, 55.893321, 38.9373587, 55.8941963, 38.9355938, 55.8944129, 38.933, 55.8936835, 38.9323805, 55.8937301, 38.9308356, 55.8906318, 38.9303957]</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>полигон тбо малая дубнаэксплуатация до 2019 г.орехово-зуево</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.8905159 38.9311682, 55.8910303 38.936031, 55.8918305 38.9370395, 55.893321 38.9373587, 55.8941963 38.9355938, 55.8944129 38.933, 55.8936835 38.9323805, 55.8937301 38.9308356, 55.8906318 38.9303957, 55.8905159 38.9311682))</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>[56.0703527, 38.0839294, 56.0730714, 38.0872124, 56.0705084, 38.0960101, 56.0692808, 38.0968791, 56.066981, 38.0944812]</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>полигон тбо царевозакрыт в 2017 г.пушкинский район</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>POLYGON ((56.0703527 38.0839294, 56.0730714 38.0872124, 56.0705084 38.0960101, 56.0692808 38.0968791, 56.066981 38.0944812, 56.0703527 38.0839294))</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>[55.5535319, 39.5187128, 55.551687, 39.5181334, 55.5512864, 39.5267165, 55.5533134, 39.5270222]</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>полигон тбо шатурскийэксплуатация до 2024 г.шатура</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.5535319 39.5187128, 55.551687 39.5181334, 55.5512864 39.5267165, 55.5533134 39.5270222, 55.5535319 39.5187128))</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>[55.2912375, 36.6735113, 55.2900279, 36.680249, 55.2885983, 36.6749489, 55.2887572, 36.6734684]</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>полигон тбо каурцевозакрыт в 2017 г.наро-фоминский район</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.2912375 36.6735113, 55.2900279 36.680249, 55.2885983 36.6749489, 55.2887572 36.6734684, 55.2912375 36.6735113))</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>[55.6205571, 36.9110477, 55.621396, 36.907363, 55.6223019, 36.9051898, 55.6234165, 36.9049108, 55.624204, 36.9084996, 55.6239011, 36.9088, 55.6240617, 36.9093177, 55.6249037, 36.9099131, 55.624834, 36.9106333, 55.6251081, 36.9110785, 55.6249234, 36.9114219, 55.6241919, 36.9115412, 55.622851, 36.9129, 55.621971, 36.913277, 55.6207389, 36.9132578]</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>полигон тбо часцызакрыт в 2014 г., незаконно принимал отходы, горел в 2018 г.одинцовский район</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.6205571 36.9110477, 55.621396 36.907363, 55.6223019 36.9051898, 55.6234165 36.9049108, 55.624204 36.9084996, 55.6239011 36.9088, 55.6240617 36.9093177, 55.6249037 36.9099131, 55.624834 36.9106333, 55.6251081 36.9110785, 55.6249234 36.9114219, 55.6241919 36.9115412, 55.622851 36.9129, 55.621971 36.913277, 55.6207389 36.9132578, 55.6205571 36.9110477))</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>[55.7603982, 36.3658726, 55.7588407, 36.3660014, 55.7586174, 36.3634291, 55.7592467, 36.3620894, 55.7610864, 36.361919, 55.7613218, 36.3630348, 55.7603982, 36.3658351]</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>полигон тбо аннинозакрыт. действовал в 1975-2016 гг. горел в 2018 г.рузский район</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.7603982 36.3658726, 55.7588407 36.3660014, 55.7586174 36.3634291, 55.7592467 36.3620894, 55.7610864 36.361919, 55.7613218 36.3630348, 55.7603982 36.3658351, 55.7603982 36.3658726))</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>[55.9894763, 38.0472207, 55.9883961, 38.0527139, 55.9856834, 38.0514693, 55.984159, 38.0486906, 55.9847111, 38.0467808, 55.9865717, 38.04721, 55.9870398, 38.045944]</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>полигон тбо сабуровоэксплуатация до 2019 г.щелковский район</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.9894763 38.0472207, 55.9883961 38.0527139, 55.9856834 38.0514693, 55.984159 38.0486906, 55.9847111 38.0467808, 55.9865717 38.04721, 55.9870398 38.045944, 55.9894763 38.0472207))</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>[55.4085896, 39.0381896, 55.4121831, 39.0428245, 55.4103559, 39.045378, 55.40915, 39.0448415, 55.4076516, 39.0421325, 55.4080536, 39.0394503]</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>полигон тбо егорьевскийэксплуатация до 2020 г.егорьевск</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.4085896 39.0381896, 55.4121831 39.0428245, 55.4103559 39.045378, 55.40915 39.0448415, 55.4076516 39.0421325, 55.4080536 39.0394503, 55.4085896 39.0381896))</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>[56.3544757, 36.8116236, 56.3588268, 36.7980623, 56.3608476, 36.8008089, 56.3572576, 36.811924]</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>полигон тбо алексинский карьерведутся работы по расширению полигонаклин</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>POLYGON ((56.3544757 36.8116236, 56.3588268 36.7980623, 56.3608476 36.8008089, 56.3572576 36.811924, 56.3544757 36.8116236))</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>[55.1085243, 37.4547261, 55.1096535, 37.4580842, 55.1083463, 37.4594361, 55.1062381, 37.4540797, 55.1056673, 37.4502401, 55.1060387, 37.4477738, 55.1071986, 37.4471837, 55.110034, 37.4528378]</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>полигон тбо кулаковский карьерзакрыт. действовал в 1959-2017 гг.чеховский район</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.1085243 37.4547261, 55.1096535 37.4580842, 55.1083463 37.4594361, 55.1062381 37.4540797, 55.1056673 37.4502401, 55.1060387 37.4477738, 55.1071986 37.4471837, 55.110034 37.4528378, 55.1085243 37.4547261))</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>[56.2072196, 37.4042416, 56.2123749, 37.4136829, 56.2061216, 37.4230385, 56.2039732, 37.4207211, 56.2023499, 37.4214077, 56.2010131, 37.4184895, 56.2031138, 37.4129105]</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>полигон тбо дмитровский (икша)закрыт в 2015 г.дмитровский район</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>POLYGON ((56.2072196 37.4042416, 56.2123749 37.4136829, 56.2061216 37.4230385, 56.2039732 37.4207211, 56.2023499 37.4214077, 56.2010131 37.4184895, 56.2031138 37.4129105, 56.2072196 37.4042416))</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>[54.7901021, 38.2385802, 54.7871451, 38.2360482, 54.7873925, 38.2324433, 54.7888649, 38.2304692]</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>полигон тбо каширский (ожерелье)закрыт в 2015 г.каширский район</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>POLYGON ((54.7901021 38.2385802, 54.7871451 38.2360482, 54.7873925 38.2324433, 54.7888649 38.2304692, 54.7901021 38.2385802))</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>[56.732171, 37.2038484, 56.733607, 37.2052431, 56.733607, 37.2070026, 56.7325594, 37.2082257, 56.7312646, 37.2060156, 56.7321592, 37.2038913]</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>полигон тбо дубна правобережнаязакрыт в 2015 г.дубна</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>POLYGON ((56.732171 37.2038484, 56.733607 37.2052431, 56.733607 37.2070026, 56.7325594 37.2082257, 56.7312646 37.2060156, 56.7321592 37.2038913, 56.732171 37.2038484))</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>[56.161459, 37.1058083, 56.1531673, 37.1205711, 56.1524502, 37.1167946, 56.1557009, 37.1024609, 56.1583299, 37.0994568]</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>полигон тбо хметьевозакрыт в 2014 г.солнечногорский район</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>POLYGON ((56.161459 37.1058083, 56.1531673 37.1205711, 56.1524502 37.1167946, 56.1557009 37.1024609, 56.1583299 37.0994568, 56.161459 37.1058083))</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>[55.3693983, 38.0124781, 55.3718233, 38.0198407, 55.3678154, 38.0239552, 55.3659983, 38.018446]</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>полигон тбо жирошкинозакрыт в 2009 г.домодедово</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.3693983 38.0124781, 55.3718233 38.0198407, 55.3678154 38.0239552, 55.3659983 38.018446, 55.3693983 38.0124781))</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>[55.7497089, 36.8891072, 55.7512546, 36.8902123, 55.7510373, 36.8930876, 55.7496832, 36.895802, 55.7486325, 36.8925726]</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>полигон тбо супоневозакрыт в 2000 г.одинцовский район</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.7497089 36.8891072, 55.7512546 36.8902123, 55.7510373 36.8930876, 55.7496832 36.895802, 55.7486325 36.8925726, 55.7497089 36.8891072))</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>[55.8676722, 36.9294477, 55.8685872, 36.9350266, 55.8670822, 36.9386101, 55.8648066, 36.937902, 55.8652159, 36.9357347, 55.8643355, 36.9349462, 55.865363, 36.931]</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>полигон тбо павловскоезакрыт в 2015 г.истринский район</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.8676722 36.9294477, 55.8685872 36.9350266, 55.8670822 36.9386101, 55.8648066 36.937902, 55.8652159 36.9357347, 55.8643355 36.9349462, 55.865363 36.931, 55.8676722 36.9294477))</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>[56.2743678, 35.6536388, 56.2746537, 35.6578875, 56.2735338, 35.6581664, 56.2730692, 35.6540895]</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>полигон тбо ошеневозакрыт в 2014 г.лотошинский район</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>POLYGON ((56.2743678 35.6536388, 56.2746537 35.6578875, 56.2735338 35.6581664, 56.2730692 35.6540895, 56.2743678 35.6536388))</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>[55.3005405, 36.7834282, 55.2987815, 36.7861533, 55.2989403, 36.7879772, 55.3001863, 36.7906165, 55.3016032, 36.7895007, 55.3020063, 36.7870331]</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>полигон тбо слизневозакрыт в 2007 г.наро-фоминский район</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.3005405 36.7834282, 55.2987815 36.7861533, 55.2989403 36.7879772, 55.3001863 36.7906165, 55.3016032 36.7895007, 55.3020063 36.7870331, 55.3005405 36.7834282))</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>[55.570769, 38.9760804, 55.5723947, 38.9770031, 55.5719458, 38.9783764, 55.5727343, 38.9797282, 55.5720914, 38.9818525, 55.5715819, 38.9819384, 55.5709631, 38.9835906, 55.5695316, 38.9815092, 55.5700168, 38.9781404]</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>полигон тбо заволеньезакрыт в 2015 г.орехово-зуевский район</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.570769 38.9760804, 55.5723947 38.9770031, 55.5719458 38.9783764, 55.5727343 38.9797282, 55.5720914 38.9818525, 55.5715819 38.9819384, 55.5709631 38.9835906, 55.5695316 38.9815092, 55.5700168 38.9781404, 55.570769 38.9760804))</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>[55.4420575, 38.3194757, 55.441595, 38.3211064, 55.4384059, 38.3210206, 55.4373225, 38.3199477, 55.4374685, 38.3181238]</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>полигон тбо тороповозакрыт в 2007 г.раменский район</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.4420575 38.3194757, 55.441595 38.3211064, 55.4384059 38.3210206, 55.4373225 38.3199477, 55.4374685 38.3181238, 55.4420575 38.3194757))</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>[56.4385536, 38.0669188, 56.4366912, 38.0685282, 56.4368573, 38.07091, 56.4373733, 38.0721331, 56.4383698, 38.072927, 56.4384469, 38.0722618, 56.4398229, 38.0732059, 56.440333, 38.0725193, 56.4402143, 38.0696011]</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>полигон тбо парфеновозакрыт в 2014 г.сергиево-посадский район</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>POLYGON ((56.4385536 38.0669188, 56.4366912 38.0685282, 56.4368573 38.07091, 56.4373733 38.0721331, 56.4383698 38.072927, 56.4384469 38.0722618, 56.4398229 38.0732059, 56.440333 38.0725193, 56.4402143 38.0696011, 56.4385536 38.0669188))</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>[55.5627005, 38.2788992, 55.5566328, 38.2860017, 55.5554677, 38.2828903, 55.5569939, 38.2801223, 55.5564705, 38.2778692, 55.5588825, 38.2761043, 55.5593861, 38.2752836, 55.560178, 38.2753265, 55.5606406, 38.2748115]</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>полигон тбо сафоновозакрыт в 2013 г.раменское</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.5627005 38.2788992, 55.5566328 38.2860017, 55.5554677 38.2828903, 55.5569939 38.2801223, 55.5564705 38.2778692, 55.5588825 38.2761043, 55.5593861 38.2752836, 55.560178 38.2753265, 55.5606406 38.2748115, 55.5627005 38.2788992))</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>[56.7722259, 37.1494746, 56.7722376, 37.1511483, 56.7716673, 37.1522427, 56.7708207, 37.151674, 56.7705385, 37.1499467, 56.7707855, 37.1493781]</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>полигон тбо дубна левобережнаязакрыт в 2014 г.дубна</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>POLYGON ((56.7722259 37.1494746, 56.7722376 37.1511483, 56.7716673 37.1522427, 56.7708207 37.151674, 56.7705385 37.1499467, 56.7707855 37.1493781, 56.7722259 37.1494746))</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>[55.7286507, 38.6213422, 55.7305235, 38.6273289, 55.7302698, 38.6284447, 55.7282036, 38.6272216, 55.7278925, 38.6262774, 55.7280617, 38.6245286, 55.7275708, 38.6226082, 55.7285616, 38.6212724]</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>полигон тбо быковозакрыт в 2013 г.павлово-посадский район</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.7286507 38.6213422, 55.7305235 38.6273289, 55.7302698 38.6284447, 55.7282036 38.6272216, 55.7278925 38.6262774, 55.7280617 38.6245286, 55.7275708 38.6226082, 55.7285616 38.6212724, 55.7286507 38.6213422))</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>[54.9243367, 37.1947074, 54.9240778, 37.1920037, 54.9269384, 37.1896219, 54.9285413, 37.1914029, 54.9282947, 37.1922398, 54.9252214, 37.1928942, 54.9253201, 37.1945035]</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>полигон тбо протвинозакрыт в 2014 г.протвино</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>POLYGON ((54.9243367 37.1947074, 54.9240778 37.1920037, 54.9269384 37.1896219, 54.9285413 37.1914029, 54.9282947 37.1922398, 54.9252214 37.1928942, 54.9253201 37.1945035, 54.9243367 37.1947074))</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>[55.9051191, 37.5014019, 55.902593, 37.5001574, 55.9018472, 37.4985695, 55.8998743, 37.4974966, 55.8996578, 37.4956512, 55.9020878, 37.4917889, 55.9056964, 37.493763]</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>полигон тбо левобережныйзакрыт в 2012 г.химки</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.9051191 37.5014019, 55.902593 37.5001574, 55.9018472 37.4985695, 55.8998743 37.4974966, 55.8996578 37.4956512, 55.9020878 37.4917889, 55.9056964 37.493763, 55.9051191 37.5014019))</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>[54.9213895, 38.1222367, 54.9250026, 38.1245756, 54.9236955, 38.1296611]</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>полигон тбо вальцовозакрыт в 2015 г.ступинский район</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>POLYGON ((54.9213895 38.1222367, 54.9250026 38.1245756, 54.9236955 38.1296611, 54.9213895 38.1222367))</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>[56.7038563, 37.4721175, 56.7043716, 37.4719727, 56.7054023, 37.4744993, 56.7044717, 37.4756098, 56.7035117, 37.4754328, 56.703282, 37.4742579, 56.7034352, 37.4730617]</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>полигон тбо талдомскийзакрыт в 2014 г.талдом</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>POLYGON ((56.7038563 37.4721175, 56.7043716 37.4719727, 56.7054023 37.4744993, 56.7044717 37.4756098, 56.7035117 37.4754328, 56.703282 37.4742579, 56.7034352 37.4730617, 56.7038563 37.4721175))</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>[56.040223, 35.4168266, 56.0397555, 35.4171431, 56.0394049, 35.4192084, 56.0397735, 35.4202974, 56.0405766, 35.4205871, 56.0409669, 35.4171726]</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>полигон тбо княжьи горызакрыт в 2014 г.шаховской район</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>POLYGON ((56.040223 35.4168266, 56.0397555 35.4171431, 56.0394049 35.4192084, 56.0397735 35.4202974, 56.0405766 35.4205871, 56.0409669 35.4171726, 56.040223 35.4168266))</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>[55.9107287, 37.5030327, 55.9113541, 37.5090623, 55.9075536, 37.5085044, 55.9074814, 37.5073242, 55.9078422, 37.5033331, 55.9107408, 37.5030327]</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>полигон тбо долгопрудныйзакрыт в 2014 г.долгопрудный</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.9107287 37.5030327, 55.9113541 37.5090623, 55.9075536 37.5085044, 55.9074814 37.5073242, 55.9078422 37.5033331, 55.9107408 37.5030327, 55.9107287 37.5030327))</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>[54.5038725, 38.7632418, 54.5050966, 38.7657952, 54.5038056, 38.768177, 54.5018899, 38.7664068]</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>полигон тбо семенковозакрыт в 2015 г.серебрянопрудский район</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>POLYGON ((54.5038725 38.7632418, 54.5050966 38.7657952, 54.5038056 38.768177, 54.5018899 38.7664068, 54.5038725 38.7632418))</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>[55.4371898, 37.6510477, 55.4403303, 37.6495028, 55.4431298, 37.6545668, 55.4418153, 37.6571417, 55.4431055, 37.6625061, 55.4411093, 37.6644373, 55.4400382, 37.6606607, 55.4379202, 37.6603603, 55.436922, 37.6562834, 55.4373602, 37.653923]</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>щербинка полигон тбо закрыт в 1988 г.домодедовский район</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.4371898 37.6510477, 55.4403303 37.6495028, 55.4431298 37.6545668, 55.4418153 37.6571417, 55.4431055 37.6625061, 55.4411093 37.6644373, 55.4400382 37.6606607, 55.4379202 37.6603603, 55.436922 37.6562834, 55.4373602 37.653923, 55.4371898 37.6510477))</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>[55.6729019, 39.903127, 55.6718491, 39.9052942, 55.6749347, 39.9101222, 55.6758905, 39.9079335]</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>полигон тбо «рошаль»закрыт после 2009 г.рошаль</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.6729019 39.903127, 55.6718491 39.9052942, 55.6749347 39.9101222, 55.6758905 39.9079335, 55.6729019 39.903127))</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>[55.590084, 36.476798, 55.591248, 36.476884, 55.5928, 36.470726, 55.593261, 36.470468, 55.594292, 36.472185, 55.594486, 36.472099, 55.595589, 36.474545, 55.59616, 36.476476, 55.595856, 36.477742, 55.59548, 36.478407, 55.595492, 36.479309, 55.594583, 36.47933, 55.594243, 36.480725, 55.592703, 36.481433, 55.592485, 36.480317, 55.591612, 36.480188, 55.591042, 36.481991, 55.5904, 36.481798, 55.590557, 36.479652, 55.590096, 36.47933, 55.590024, 36.478472]</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>полигон тбо «тучково»закрыт в 2010 г.рузский район</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.590084 36.476798, 55.591248 36.476884, 55.5928 36.470726, 55.593261 36.470468, 55.594292 36.472185, 55.594486 36.472099, 55.595589 36.474545, 55.59616 36.476476, 55.595856 36.477742, 55.59548 36.478407, 55.595492 36.479309, 55.594583 36.47933, 55.594243 36.480725, 55.592703 36.481433, 55.592485 36.480317, 55.591612 36.480188, 55.591042 36.481991, 55.5904 36.481798, 55.590557 36.479652, 55.590096 36.47933, 55.590024 36.478472, 55.590084 36.476798))</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>[55.6752493, 37.9657245, 55.6744628, 37.9646087, 55.6751404, 37.9635572, 55.6755396, 37.9637933, 55.6758905, 37.9620981, 55.6774271, 37.9622054, 55.6794597, 37.964437, 55.680113, 37.964673, 55.6800646, 37.9650164, 55.6782014, 37.9643297, 55.6772698, 37.963171, 55.6764713, 37.9644799, 55.6758784, 37.9641366]</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>полигон тбо машковозакрыт в 2011 г.люберецкий район</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.6752493 37.9657245, 55.6744628 37.9646087, 55.6751404 37.9635572, 55.6755396 37.9637933, 55.6758905 37.9620981, 55.6774271 37.9622054, 55.6794597 37.964437, 55.680113 37.964673, 55.6800646 37.9650164, 55.6782014 37.9643297, 55.6772698 37.963171, 55.6764713 37.9644799, 55.6758784 37.9641366, 55.6752493 37.9657245))</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>[55.460244, 37.779, 55.462275, 37.7843, 55.463857, 37.78548, 55.464842, 37.781639, 55.46365, 37.78, 55.462628, 37.781746, 55.46039, 37.778828]</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>полигон тбо домодедовозакрыт до 2009 г.домодедовский район</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.460244 37.779, 55.462275 37.7843, 55.463857 37.78548, 55.464842 37.781639, 55.46365 37.78, 55.462628 37.781746, 55.46039 37.778828, 55.460244 37.779))</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>[55.5058583, 38.1408942, 55.5061985, 38.1423318, 55.504315, 38.1500995, 55.5026865, 38.1480181, 55.5022946, 38.1455666]</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>полигон тбо «становое»закрыт до 2009 г.раменский район</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.5058583 38.1408942, 55.5061985 38.1423318, 55.504315 38.1500995, 55.5026865 38.1480181, 55.5022946 38.1455666, 55.5058583 38.1408942))</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>[55.5462853, 38.1160355, 55.546613, 38.1154346, 55.5471836, 38.1157136, 55.5476813, 38.1144261, 55.5486645, 38.1129241, 55.5488588, 38.1132674, 55.5484946, 38.1166792, 55.5477663, 38.1177521, 55.546346, 38.11728]</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>полигон тбо наркомводзакрыт в 2003 г.раменский район</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.5462853 38.1160355, 55.546613 38.1154346, 55.5471836 38.1157136, 55.5476813 38.1144261, 55.5486645 38.1129241, 55.5488588 38.1132674, 55.5484946 38.1166792, 55.5477663 38.1177521, 55.546346 38.11728, 55.5462853 38.1160355))</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>[55.8878581, 38.7392199, 55.8889892, 38.7398958, 55.889272, 38.7415373, 55.8890795, 38.7429053, 55.8881709, 38.7447453, 55.8870037, 38.7460649, 55.8863358, 38.7453461, 55.8861192, 38.743844, 55.8856498, 38.7433505, 55.8856859, 38.7413871, 55.8865042, 38.7393916]</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>полигон тбо электрогорский (липовская свалка)официально закрыт в 2003 г., однако мусор завозился и в 2016 г.павлово-посадский район</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.8878581 38.7392199, 55.8889892 38.7398958, 55.889272 38.7415373, 55.8890795 38.7429053, 55.8881709 38.7447453, 55.8870037 38.7460649, 55.8863358 38.7453461, 55.8861192 38.743844, 55.8856498 38.7433505, 55.8856859 38.7413871, 55.8865042 38.7393916, 55.8878581 38.7392199))</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>[55.1155875, 38.0211604, 55.114931, 38.0217397, 55.1164466, 38.0255699, 55.1171767, 38.0251086]</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>полигон тбо «39-й квартал ульяновского лесничества» работал до 2015 г.ступинский район</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.1155875 38.0211604, 55.114931 38.0217397, 55.1164466 38.0255699, 55.1171767 38.0251086, 55.1155875 38.0211604))</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>[55.1769072, 38.35899, 55.1756267, 38.3614898, 55.1747934, 38.3603096, 55.1745667, 38.3582711, 55.1745667, 38.3582711]</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>полигон тбо мещерино-1закрытступинский район</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.1769072 38.35899, 55.1756267 38.3614898, 55.1747934 38.3603096, 55.1745667 38.3582711, 55.1745667 38.3582711, 55.1769072 38.35899))</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>[56.0429153, 36.9994104, 56.0454802, 37.002672, 56.0462352, 37.0011485, 56.0469663, 37.0024788, 56.0472779, 37.0036805, 56.0482306, 37.0052361, 56.047182, 37.0072424, 56.0459955, 37.0081437, 56.0447731, 37.0105684, 56.0430082, 37.0079559, 56.0445663, 37.0047694, 56.0426726, 37.0022911, 56.0425797, 37.000891]</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>незаконный полигон тбо — рекультивируемый поваровский песчаный карьердействовал в 2002-2012 гг. закрыт и засыпан грунтомповарово, солнечногорский район</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>POLYGON ((56.0429153 36.9994104, 56.0454802 37.002672, 56.0462352 37.0011485, 56.0469663 37.0024788, 56.0472779 37.0036805, 56.0482306 37.0052361, 56.047182 37.0072424, 56.0459955 37.0081437, 56.0447731 37.0105684, 56.0430082 37.0079559, 56.0445663 37.0047694, 56.0426726 37.0022911, 56.0425797 37.000891, 56.0429153 36.9994104))</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>[55.7210678, 38.0225444, 55.7207778, 38.0250549, 55.7196055, 38.0245399, 55.719255, 38.0249476, 55.7176354, 38.0243039, 55.7158707, 38.0205059, 55.7186628, 38.0192828, 55.7187232, 38.0203772]</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>саввинская свалка  полигон тбо незаконная свалка, засыпана грунтом в 2012 г.пуршево, балашихинский район</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.7210678 38.0225444, 55.7207778 38.0250549, 55.7196055 38.0245399, 55.719255 38.0249476, 55.7176354 38.0243039, 55.7158707 38.0205059, 55.7186628 38.0192828, 55.7187232 38.0203772, 55.7210678 38.0225444))</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>[55.7219621, 38.0616403, 55.7197747, 38.0601382, 55.7188924, 38.0623269, 55.7196417, 38.0642796, 55.7200164, 38.0718112, 55.7207899, 38.0733132, 55.721805, 38.0722833, 55.7218413, 38.0702877, 55.7216963, 38.0651593]</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>полигон тбо пуршеводействовал в 2006-2013 гг.пуршево, балашихинский район</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.7219621 38.0616403, 55.7197747 38.0601382, 55.7188924 38.0623269, 55.7196417 38.0642796, 55.7200164 38.0718112, 55.7207899 38.0733132, 55.721805 38.0722833, 55.7218413 38.0702877, 55.7216963 38.0651593, 55.7219621 38.0616403))</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>[55.4339199, 38.6352682, 55.4339199, 38.6387444, 55.4315337, 38.6380363, 55.4310833, 38.6390662, 55.4298536, 38.6392808, 55.4286725, 38.6377144, 55.4282099, 38.6362767, 55.4286847, 38.6346245, 55.4290378, 38.6346245, 55.4298779, 38.635397, 55.4298657, 38.6357832, 55.4302432, 38.6360836, 55.4306815, 38.635633, 55.4324834, 38.636148]</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>полигон тбо ашитково (незаконный)закрыт в 2014 г.воскресенский район</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.4339199 38.6352682, 55.4339199 38.6387444, 55.4315337 38.6380363, 55.4310833 38.6390662, 55.4298536 38.6392808, 55.4286725 38.6377144, 55.4282099 38.6362767, 55.4286847 38.6346245, 55.4290378 38.6346245, 55.4298779 38.635397, 55.4298657 38.6357832, 55.4302432 38.6360836, 55.4306815 38.635633, 55.4324834 38.636148, 55.4339199 38.6352682))</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>[55.997709, 37.375145, 55.997181, 37.3773766, 55.995933, 37.3933411, 55.996077, 37.3960018, 55.996941, 37.3980618, 55.9989089, 37.399435, 56.0006368, 37.395401, 56.0023166, 37.3802948, 56.0030365, 37.3792648, 56.0029885, 37.3778915]</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>полигон тбо шемякино (незаконный)действовал в 2008-2010 гг.химки</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.997709 37.375145, 55.997181 37.3773766, 55.995933 37.3933411, 55.996077 37.3960018, 55.996941 37.3980618, 55.9989089 37.399435, 56.0006368 37.395401, 56.0023166 37.3802948, 56.0030365 37.3792648, 56.0029885 37.3778915, 55.997709 37.375145))</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>[55.4392105, 37.6776123, 55.4378958, 37.672677, 55.4328559, 37.6770544, 55.4332942, 37.6817751]</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>полигон тбо щербинка-2 (незаконный)закрыт после 2013 г.домодедовский район</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.4392105 37.6776123, 55.4378958 37.672677, 55.4328559 37.6770544, 55.4332942 37.6817751, 55.4392105 37.6776123))</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>[55.382609, 37.293241, 55.385888, 37.2947, 55.385632, 37.296781, 55.386059, 37.298069, 55.385425, 37.300472, 55.385437, 37.301373, 55.38434, 37.306802, 55.382974, 37.305344, 55.379452, 37.298691, 55.379464, 37.296717]</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>полигон тбо малинкив 2017 г. принято решение о консервации. также рассматривался проект расширениятроицкий округ</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.382609 37.293241, 55.385888 37.2947, 55.385632 37.296781, 55.386059 37.298069, 55.385425 37.300472, 55.385437 37.301373, 55.38434 37.306802, 55.382974 37.305344, 55.379452 37.298691, 55.379464 37.296717, 55.382609 37.293241))</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>[55.6096911, 37.4190044, 55.6148296, 37.4262142, 55.6140056, 37.4326515, 55.6160899, 37.4361706, 55.6143449, 37.4394321, 55.6092063, 37.4327374]</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>полигон тбо саларьевозакрыт в 2007 г.новомосковский округ</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.6096911 37.4190044, 55.6148296 37.4262142, 55.6140056 37.4326515, 55.6160899 37.4361706, 55.6143449 37.4394321, 55.6092063 37.4327374, 55.6096911 37.4190044))</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>[55.5744711, 37.4180603, 55.570031, 37.4127817, 55.573258, 37.4066877, 55.5740587, 37.4083614, 55.5763635, 37.4063444, 55.5783528, 37.4090052, 55.5760238, 37.4132967]</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>полигон тбо летовозакрыт в 2007 г.новомосковский округ</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.5744711 37.4180603, 55.570031 37.4127817, 55.573258 37.4066877, 55.5740587 37.4083614, 55.5763635 37.4063444, 55.5783528 37.4090052, 55.5760238 37.4132967, 55.5744711 37.4180603))</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>[55.677215, 37.936163, 55.67833, 37.96217, 55.687107, 37.961569, 55.689204, 37.958672, 55.691047, 37.952535, 55.686829, 37.948115, 55.687895, 37.945154, 55.687362, 37.937257, 55.68695, 37.936528, 55.686804, 37.934554]</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>люберецкие очистные сооружениямосводоканалнекрасовка</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.677215 37.936163, 55.67833 37.96217, 55.687107 37.961569, 55.689204 37.958672, 55.691047 37.952535, 55.686829 37.948115, 55.687895 37.945154, 55.687362 37.937257, 55.68695 37.936528, 55.686804 37.934554, 55.677215 37.936163))</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
           <t>waste</t>
         </is>
       </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>[55.653546, 37.691369, 55.659927, 37.699738, 55.66313, 37.700896, 55.669339, 37.690082, 55.665192, 37.680855, 55.663469, 37.67931, 55.65556, 37.677507, 55.655008, 37.688075]</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>курьяновские очистные сооружениякрупнейшие в европе сооружения по очистке канализационных стоков. источник неприятных запахов (сероводород)мосводоканалпечатники</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.653546 37.691369, 55.659927 37.699738, 55.66313 37.700896, 55.669339 37.690082, 55.665192 37.680855, 55.663469 37.67931, 55.65556 37.677507, 55.655008 37.688075, 55.653546 37.691369))</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>waste</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>[55.979007, 37.254843, 55.974676, 37.252525, 55.974486, 37.253614, 55.974697, 37.253732, 55.974516, 37.255406, 55.974829, 37.255556, 55.974763, 37.256028, 55.978523, 37.258035]</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>очистные сооружения зеленоградамосводоканалсавёлки</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.979007 37.254843, 55.974676 37.252525, 55.974486 37.253614, 55.974697 37.253732, 55.974516 37.255406, 55.974829 37.255556, 55.974763 37.256028, 55.978523 37.258035, 55.979007 37.254843))</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>waste</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>[55.521695, 37.526743, 55.522894, 37.521185, 55.5243, 37.521196, 55.524684, 37.521421, 55.525134, 37.522108, 55.525578, 37.524222]</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>очистные сооружения южное бутовомосводоканалюжное бутово</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>POLYGON ((55.521695 37.526743, 55.522894 37.521185, 55.5243 37.521196, 55.524684 37.521421, 55.525134 37.522108, 55.525578 37.524222, 55.521695 37.526743))</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>waste</t>
-        </is>
+      <c r="E145" t="n">
+        <v>26.29853159556843</v>
       </c>
     </row>
   </sheetData>
